--- a/Прайс на полиграфию/Прайс на полиграфию.xlsx
+++ b/Прайс на полиграфию/Прайс на полиграфию.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$90</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$137</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="256">
   <si>
     <t>Визитка</t>
   </si>
@@ -565,13 +565,235 @@
   </si>
   <si>
     <t>4280 грн</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>Размер 297х420 мм</t>
+  </si>
+  <si>
+    <t>3023 грн</t>
+  </si>
+  <si>
+    <t>5892 грн</t>
+  </si>
+  <si>
+    <t>13980 грн</t>
+  </si>
+  <si>
+    <t>992 грн</t>
+  </si>
+  <si>
+    <t>1655 грн</t>
+  </si>
+  <si>
+    <t>2480 грн</t>
+  </si>
+  <si>
+    <t>4480 грн</t>
+  </si>
+  <si>
+    <t>973 грн</t>
+  </si>
+  <si>
+    <t>2231 грн</t>
+  </si>
+  <si>
+    <t>4180 грн</t>
+  </si>
+  <si>
+    <t>1264 грн</t>
+  </si>
+  <si>
+    <t>2060 грн</t>
+  </si>
+  <si>
+    <t>6080 грн</t>
+  </si>
+  <si>
+    <t>1361 грн</t>
+  </si>
+  <si>
+    <t>2331 грн</t>
+  </si>
+  <si>
+    <t>3304 грн</t>
+  </si>
+  <si>
+    <t>6220 грн</t>
+  </si>
+  <si>
+    <t>1682 грн</t>
+  </si>
+  <si>
+    <t>3013 грн</t>
+  </si>
+  <si>
+    <t>5294 грн</t>
+  </si>
+  <si>
+    <t>11010 грн</t>
+  </si>
+  <si>
+    <t>1988 грн</t>
+  </si>
+  <si>
+    <t>3769 грн</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>Размер 420х594 мм</t>
+  </si>
+  <si>
+    <t>Плотность 115 гр/кв.м</t>
+  </si>
+  <si>
+    <t>Полноцвет с 1 сторона</t>
+  </si>
+  <si>
+    <t>100 шт</t>
+  </si>
+  <si>
+    <t>250 шт</t>
+  </si>
+  <si>
+    <t>500 шт</t>
+  </si>
+  <si>
+    <t>Полноцвет с 2 стороны</t>
+  </si>
+  <si>
+    <t>Плотность 150 гр/кв.м</t>
+  </si>
+  <si>
+    <t>Плотность 200 гр/кв.м</t>
+  </si>
+  <si>
+    <t>855 грн</t>
+  </si>
+  <si>
+    <t>944 грн</t>
+  </si>
+  <si>
+    <t>1294 грн</t>
+  </si>
+  <si>
+    <t>2265 грн</t>
+  </si>
+  <si>
+    <t>3889 грн</t>
+  </si>
+  <si>
+    <t>1897 грн</t>
+  </si>
+  <si>
+    <t>2091 грн</t>
+  </si>
+  <si>
+    <t>3307 грн</t>
+  </si>
+  <si>
+    <t>4762 грн</t>
+  </si>
+  <si>
+    <t>924 грн</t>
+  </si>
+  <si>
+    <t>1075 грн</t>
+  </si>
+  <si>
+    <t>1342 грн</t>
+  </si>
+  <si>
+    <t>2431 грн</t>
+  </si>
+  <si>
+    <t>3993 грн</t>
+  </si>
+  <si>
+    <t>1940 грн</t>
+  </si>
+  <si>
+    <t>2134 грн</t>
+  </si>
+  <si>
+    <t>3104 грн</t>
+  </si>
+  <si>
+    <t>4753 грн</t>
+  </si>
+  <si>
+    <t>1041 грн</t>
+  </si>
+  <si>
+    <t>1119 грн</t>
+  </si>
+  <si>
+    <t>1558 грн</t>
+  </si>
+  <si>
+    <t>2829 грн</t>
+  </si>
+  <si>
+    <t>4462 грн</t>
+  </si>
+  <si>
+    <t>2037 грн</t>
+  </si>
+  <si>
+    <t>3346 грн</t>
+  </si>
+  <si>
+    <t>5338 грн</t>
+  </si>
+  <si>
+    <t>1170 грн</t>
+  </si>
+  <si>
+    <t>3061 грн</t>
+  </si>
+  <si>
+    <t>5447 грн</t>
+  </si>
+  <si>
+    <t>2328 грн</t>
+  </si>
+  <si>
+    <t>3589 грн</t>
+  </si>
+  <si>
+    <t>5723 грн</t>
+  </si>
+  <si>
+    <t>1130 грн</t>
+  </si>
+  <si>
+    <t>1215 грн</t>
+  </si>
+  <si>
+    <t>1772 грн</t>
+  </si>
+  <si>
+    <t>5632 грн</t>
+  </si>
+  <si>
+    <t>2425 грн</t>
+  </si>
+  <si>
+    <t>3831 грн</t>
+  </si>
+  <si>
+    <t>6308 грн</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,16 +801,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -728,12 +973,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -746,21 +1035,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1199,20 +1512,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>647701</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>131369</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>98050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Рисунок 24"/>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1231,8 +1544,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3476626" y="9563100"/>
-          <a:ext cx="1314450" cy="1293419"/>
+          <a:off x="114300" y="17411701"/>
+          <a:ext cx="1390650" cy="1269624"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1243,20 +1556,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>685801</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>131369</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>98050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Рисунок 25"/>
+        <xdr:cNvPr id="23" name="Рисунок 22"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1275,8 +1588,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5172076" y="9563100"/>
-          <a:ext cx="1314450" cy="1293419"/>
+          <a:off x="1809750" y="17411701"/>
+          <a:ext cx="1390650" cy="1269624"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1287,20 +1600,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>734579</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>114426</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Рисунок 30"/>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1319,8 +1632,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6667500" y="9572625"/>
-          <a:ext cx="1496579" cy="1365250"/>
+          <a:off x="3409950" y="17411700"/>
+          <a:ext cx="1409700" cy="1286001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1331,20 +1644,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>766329</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>114426</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Рисунок 31"/>
+        <xdr:cNvPr id="24" name="Рисунок 23"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1363,8 +1676,272 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8350250" y="9556750"/>
-          <a:ext cx="1496579" cy="1365250"/>
+          <a:off x="5057775" y="17411700"/>
+          <a:ext cx="1409700" cy="1286001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>114426</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Рисунок 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6800850" y="17411700"/>
+          <a:ext cx="1409700" cy="1286001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>114426</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Рисунок 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8391525" y="17411700"/>
+          <a:ext cx="1409700" cy="1286001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>177757</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6715125" y="9582150"/>
+          <a:ext cx="1447800" cy="1320757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>177757</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Рисунок 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8315325" y="9582150"/>
+          <a:ext cx="1447800" cy="1320757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>178359</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3467101" y="9563100"/>
+          <a:ext cx="1352550" cy="1340409"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>178359</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Рисунок 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5114926" y="9563100"/>
+          <a:ext cx="1352550" cy="1340409"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1663,10 +2240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M53" sqref="M53"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,2315 +2252,3323 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="2"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="6"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="8"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="10"/>
+      <c r="G9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="3" t="s">
+      <c r="H9" s="10"/>
+      <c r="I9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="3" t="s">
+      <c r="J9" s="10"/>
+      <c r="K9" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="9" t="s">
+      <c r="H10" s="17"/>
+      <c r="I10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="9" t="s">
+      <c r="J10" s="17"/>
+      <c r="K10" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="L10" s="10"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="7" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="7" t="s">
+      <c r="H11" s="12"/>
+      <c r="I11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="7" t="s">
+      <c r="J11" s="12"/>
+      <c r="K11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="20"/>
+      <c r="G12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="7" t="s">
+      <c r="H12" s="20"/>
+      <c r="I12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="7" t="s">
+      <c r="J12" s="20"/>
+      <c r="K12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="8"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="14" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="14" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="14" t="s">
+      <c r="H13" s="14"/>
+      <c r="I13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="14" t="s">
+      <c r="J13" s="14"/>
+      <c r="K13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="15"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="7" t="s">
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="12" t="s">
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="13"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="K17" s="5"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="9" t="s">
+      <c r="F18" s="17"/>
+      <c r="G18" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="9" t="s">
+      <c r="H18" s="17"/>
+      <c r="I18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="9" t="s">
+      <c r="J18" s="17"/>
+      <c r="K18" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="L18" s="10"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7" t="s">
+      <c r="D19" s="12"/>
+      <c r="E19" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="7" t="s">
+      <c r="F19" s="12"/>
+      <c r="G19" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="7" t="s">
+      <c r="H19" s="12"/>
+      <c r="I19" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="7" t="s">
+      <c r="J19" s="12"/>
+      <c r="K19" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="7" t="s">
+      <c r="F20" s="20"/>
+      <c r="G20" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="7" t="s">
+      <c r="H20" s="20"/>
+      <c r="I20" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="7" t="s">
+      <c r="J20" s="20"/>
+      <c r="K20" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="8"/>
+      <c r="L20" s="20"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="14" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="14" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="7" t="s">
+      <c r="F21" s="14"/>
+      <c r="G21" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="7" t="s">
+      <c r="H21" s="15"/>
+      <c r="I21" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="7" t="s">
+      <c r="J21" s="15"/>
+      <c r="K21" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="11"/>
+      <c r="L21" s="15"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="L22" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="K23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="L23" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L24" s="8" t="s">
+      <c r="L24" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="J25" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="K25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L25" s="13" t="s">
+      <c r="L25" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="17"/>
+      <c r="C26" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="9" t="s">
+      <c r="D26" s="17"/>
+      <c r="E26" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="9" t="s">
+      <c r="F26" s="17"/>
+      <c r="G26" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="9" t="s">
+      <c r="H26" s="17"/>
+      <c r="I26" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J26" s="10"/>
-      <c r="K26" s="9" t="s">
+      <c r="J26" s="17"/>
+      <c r="K26" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="L26" s="10"/>
+      <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="7" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="7" t="s">
+      <c r="D27" s="12"/>
+      <c r="E27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="7" t="s">
+      <c r="F27" s="12"/>
+      <c r="G27" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="7" t="s">
+      <c r="H27" s="12"/>
+      <c r="I27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="7" t="s">
+      <c r="J27" s="12"/>
+      <c r="K27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="8"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="7" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="7" t="s">
+      <c r="D28" s="20"/>
+      <c r="E28" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="7" t="s">
+      <c r="F28" s="20"/>
+      <c r="G28" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="7" t="s">
+      <c r="H28" s="20"/>
+      <c r="I28" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="7" t="s">
+      <c r="J28" s="20"/>
+      <c r="K28" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L28" s="8"/>
+      <c r="L28" s="20"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="14" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="14" t="s">
+      <c r="D29" s="14"/>
+      <c r="E29" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="14" t="s">
+      <c r="F29" s="14"/>
+      <c r="G29" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="14" t="s">
+      <c r="H29" s="14"/>
+      <c r="I29" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="J29" s="15"/>
-      <c r="K29" s="14" t="s">
+      <c r="J29" s="14"/>
+      <c r="K29" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="L29" s="15"/>
+      <c r="L29" s="14"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="K30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="L30" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="K31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L31" s="8" t="s">
+      <c r="L31" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="K32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="8" t="s">
+      <c r="L32" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I33" s="12"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="12" t="s">
+      <c r="I33" s="5"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L33" s="13" t="s">
+      <c r="L33" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="9" t="s">
+      <c r="B34" s="17"/>
+      <c r="C34" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="7" t="s">
+      <c r="D34" s="17"/>
+      <c r="E34" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="9" t="s">
+      <c r="F34" s="17"/>
+      <c r="G34" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="10"/>
-      <c r="I34" s="9" t="s">
+      <c r="H34" s="17"/>
+      <c r="I34" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J34" s="10"/>
-      <c r="K34" s="9" t="s">
+      <c r="J34" s="17"/>
+      <c r="K34" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="L34" s="10"/>
+      <c r="L34" s="17"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="7" t="s">
+      <c r="B35" s="12"/>
+      <c r="C35" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="7" t="s">
+      <c r="D35" s="12"/>
+      <c r="E35" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="7" t="s">
+      <c r="F35" s="12"/>
+      <c r="G35" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="7" t="s">
+      <c r="H35" s="12"/>
+      <c r="I35" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="7" t="s">
+      <c r="J35" s="12"/>
+      <c r="K35" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="8"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="L35" s="12"/>
+    </row>
+    <row r="36" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="7" t="s">
+      <c r="B36" s="20"/>
+      <c r="C36" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="7" t="s">
+      <c r="D36" s="20"/>
+      <c r="E36" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="7" t="s">
+      <c r="F36" s="20"/>
+      <c r="G36" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="7" t="s">
+      <c r="H36" s="20"/>
+      <c r="I36" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="J36" s="8"/>
-      <c r="K36" s="7" t="s">
+      <c r="J36" s="20"/>
+      <c r="K36" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L36" s="8"/>
+      <c r="L36" s="20"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="14" t="s">
+      <c r="B37" s="14"/>
+      <c r="C37" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="14" t="s">
+      <c r="D37" s="14"/>
+      <c r="E37" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="14" t="s">
+      <c r="F37" s="14"/>
+      <c r="G37" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="14" t="s">
+      <c r="H37" s="14"/>
+      <c r="I37" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="J37" s="15"/>
-      <c r="K37" s="14" t="s">
+      <c r="J37" s="14"/>
+      <c r="K37" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="L37" s="15"/>
+      <c r="L37" s="14"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L38" s="8" t="s">
+      <c r="L38" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I39" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="J39" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="K39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L39" s="8" t="s">
+      <c r="L39" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J40" s="8" t="s">
+      <c r="J40" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="K40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L40" s="8" t="s">
+      <c r="L40" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="G41" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="H41" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I41" s="12"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="12" t="s">
+      <c r="I41" s="5"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L41" s="13" t="s">
+      <c r="L41" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K42" s="9" t="s">
+    <row r="42" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K42" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L42" s="10"/>
+      <c r="L42" s="17"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K43" s="7" t="s">
+      <c r="K43" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="8"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K44" s="7" t="s">
+      <c r="L43" s="12"/>
+    </row>
+    <row r="44" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K44" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L44" s="8"/>
+      <c r="L44" s="20"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K45" s="14" t="s">
+      <c r="K45" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="L45" s="15"/>
+      <c r="L45" s="14"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K46" s="5" t="s">
+      <c r="K46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L46" s="8" t="s">
+      <c r="L46" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K47" s="7" t="s">
+      <c r="K47" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L47" s="8" t="s">
+      <c r="L47" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K48" s="7" t="s">
+      <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L48" s="8" t="s">
+      <c r="L48" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K49" s="12" t="s">
+      <c r="K49" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L49" s="13" t="s">
+      <c r="L49" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="1" t="s">
+      <c r="B50" s="8"/>
+      <c r="C50" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="1" t="s">
+      <c r="D50" s="8"/>
+      <c r="E50" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="1" t="s">
+      <c r="F50" s="8"/>
+      <c r="G50" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H50" s="2"/>
-      <c r="I50" s="1" t="s">
+      <c r="H50" s="8"/>
+      <c r="I50" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="J50" s="2"/>
-      <c r="K50" s="1" t="s">
+      <c r="J50" s="8"/>
+      <c r="K50" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="L50" s="2"/>
+      <c r="L50" s="8"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="6"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="8"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="4"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="8"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="4"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="8"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="4"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="8"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="4"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="8"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="4"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="8"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="4"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="3" t="s">
+      <c r="B58" s="10"/>
+      <c r="C58" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="3" t="s">
+      <c r="D58" s="10"/>
+      <c r="E58" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F58" s="4"/>
-      <c r="G58" s="3" t="s">
+      <c r="F58" s="10"/>
+      <c r="G58" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H58" s="4"/>
-      <c r="I58" s="3" t="s">
+      <c r="H58" s="10"/>
+      <c r="I58" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="J58" s="4"/>
-      <c r="K58" s="3" t="s">
+      <c r="J58" s="10"/>
+      <c r="K58" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="L58" s="4"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="L58" s="10"/>
+    </row>
+    <row r="59" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="9" t="s">
+      <c r="B59" s="17"/>
+      <c r="C59" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="10"/>
-      <c r="E59" s="9" t="s">
+      <c r="D59" s="17"/>
+      <c r="E59" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F59" s="10"/>
-      <c r="G59" s="9" t="s">
+      <c r="F59" s="17"/>
+      <c r="G59" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H59" s="10"/>
-      <c r="I59" s="9" t="s">
+      <c r="H59" s="17"/>
+      <c r="I59" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="J59" s="10"/>
-      <c r="K59" s="9" t="s">
+      <c r="J59" s="17"/>
+      <c r="K59" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L59" s="10"/>
+      <c r="L59" s="17"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="7" t="s">
+      <c r="B60" s="12"/>
+      <c r="C60" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="7" t="s">
+      <c r="D60" s="12"/>
+      <c r="E60" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="7" t="s">
+      <c r="F60" s="12"/>
+      <c r="G60" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H60" s="8"/>
-      <c r="I60" s="7" t="s">
+      <c r="H60" s="12"/>
+      <c r="I60" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J60" s="8"/>
-      <c r="K60" s="7" t="s">
+      <c r="J60" s="12"/>
+      <c r="K60" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="8"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+      <c r="L60" s="12"/>
+    </row>
+    <row r="61" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="7" t="s">
+      <c r="B61" s="20"/>
+      <c r="C61" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="7" t="s">
+      <c r="D61" s="20"/>
+      <c r="E61" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F61" s="8"/>
-      <c r="G61" s="7" t="s">
+      <c r="F61" s="20"/>
+      <c r="G61" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H61" s="8"/>
-      <c r="I61" s="7" t="s">
+      <c r="H61" s="20"/>
+      <c r="I61" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J61" s="8"/>
-      <c r="K61" s="7" t="s">
+      <c r="J61" s="20"/>
+      <c r="K61" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L61" s="8"/>
+      <c r="L61" s="20"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="14" t="s">
+      <c r="B62" s="14"/>
+      <c r="C62" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D62" s="15"/>
-      <c r="E62" s="14" t="s">
+      <c r="D62" s="14"/>
+      <c r="E62" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F62" s="15"/>
-      <c r="G62" s="14" t="s">
+      <c r="F62" s="14"/>
+      <c r="G62" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="14" t="s">
+      <c r="H62" s="14"/>
+      <c r="I62" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="J62" s="15"/>
-      <c r="K62" s="14" t="s">
+      <c r="J62" s="14"/>
+      <c r="K62" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="L62" s="15"/>
+      <c r="L62" s="14"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H63" s="8" t="s">
+      <c r="H63" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I63" s="7" t="s">
+      <c r="I63" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J63" s="8" t="s">
+      <c r="J63" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="K63" s="5" t="s">
+      <c r="K63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L63" s="8" t="s">
+      <c r="L63" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="G64" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H64" s="8" t="s">
+      <c r="H64" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="I64" s="7" t="s">
+      <c r="I64" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J64" s="8" t="s">
+      <c r="J64" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K64" s="7" t="s">
+      <c r="K64" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L64" s="8" t="s">
+      <c r="L64" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="G65" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H65" s="8" t="s">
+      <c r="H65" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="I65" s="7" t="s">
+      <c r="I65" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J65" s="8" t="s">
+      <c r="J65" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="K65" s="7" t="s">
+      <c r="K65" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L65" s="8" t="s">
+      <c r="L65" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="12"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="12" t="s">
+      <c r="A66" s="5"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E66" s="12"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="12" t="s">
+      <c r="E66" s="5"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H66" s="13" t="s">
+      <c r="H66" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="I66" s="12"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="12" t="s">
+      <c r="I66" s="5"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L66" s="13" t="s">
+      <c r="L66" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
+    <row r="67" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="9" t="s">
+      <c r="B67" s="17"/>
+      <c r="C67" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="10"/>
-      <c r="E67" s="9" t="s">
+      <c r="D67" s="17"/>
+      <c r="E67" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F67" s="10"/>
-      <c r="G67" s="9" t="s">
+      <c r="F67" s="17"/>
+      <c r="G67" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H67" s="10"/>
-      <c r="I67" s="9" t="s">
+      <c r="H67" s="17"/>
+      <c r="I67" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="J67" s="10"/>
-      <c r="K67" s="9" t="s">
+      <c r="J67" s="17"/>
+      <c r="K67" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L67" s="10"/>
+      <c r="L67" s="17"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="7" t="s">
+      <c r="B68" s="12"/>
+      <c r="C68" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D68" s="8"/>
-      <c r="E68" s="7" t="s">
+      <c r="D68" s="12"/>
+      <c r="E68" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F68" s="8"/>
-      <c r="G68" s="7" t="s">
+      <c r="F68" s="12"/>
+      <c r="G68" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H68" s="8"/>
-      <c r="I68" s="7" t="s">
+      <c r="H68" s="12"/>
+      <c r="I68" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J68" s="8"/>
-      <c r="K68" s="7" t="s">
+      <c r="J68" s="12"/>
+      <c r="K68" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L68" s="8"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
+      <c r="L68" s="12"/>
+    </row>
+    <row r="69" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="7" t="s">
+      <c r="B69" s="20"/>
+      <c r="C69" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="7" t="s">
+      <c r="D69" s="20"/>
+      <c r="E69" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F69" s="8"/>
-      <c r="G69" s="7" t="s">
+      <c r="F69" s="20"/>
+      <c r="G69" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="H69" s="8"/>
-      <c r="I69" s="7" t="s">
+      <c r="H69" s="20"/>
+      <c r="I69" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J69" s="8"/>
-      <c r="K69" s="7" t="s">
+      <c r="J69" s="20"/>
+      <c r="K69" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="L69" s="8"/>
+      <c r="L69" s="20"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="14" t="s">
+      <c r="B70" s="15"/>
+      <c r="C70" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D70" s="15"/>
-      <c r="E70" s="7" t="s">
+      <c r="D70" s="14"/>
+      <c r="E70" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F70" s="11"/>
-      <c r="G70" s="14" t="s">
+      <c r="F70" s="15"/>
+      <c r="G70" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="7" t="s">
+      <c r="H70" s="14"/>
+      <c r="I70" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="J70" s="11"/>
-      <c r="K70" s="14" t="s">
+      <c r="J70" s="15"/>
+      <c r="K70" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="L70" s="15"/>
+      <c r="L70" s="14"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="G71" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H71" s="8" t="s">
+      <c r="H71" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I71" s="5" t="s">
+      <c r="I71" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J71" s="8" t="s">
+      <c r="J71" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K71" s="7" t="s">
+      <c r="K71" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L71" s="8" t="s">
+      <c r="L71" s="4" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="G72" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H72" s="8" t="s">
+      <c r="H72" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I72" s="7" t="s">
+      <c r="I72" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J72" s="8" t="s">
+      <c r="J72" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="K72" s="7" t="s">
+      <c r="K72" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L72" s="8" t="s">
+      <c r="L72" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="G73" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="H73" s="8" t="s">
+      <c r="H73" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="I73" s="7" t="s">
+      <c r="I73" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J73" s="8" t="s">
+      <c r="J73" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="K73" s="7" t="s">
+      <c r="K73" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="L73" s="8" t="s">
+      <c r="L73" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="D74" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E74" s="12" t="s">
+      <c r="E74" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F74" s="13" t="s">
+      <c r="F74" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G74" s="12" t="s">
+      <c r="G74" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H74" s="13" t="s">
+      <c r="H74" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I74" s="12" t="s">
+      <c r="I74" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J74" s="13" t="s">
+      <c r="J74" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="K74" s="12" t="s">
+      <c r="K74" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L74" s="13" t="s">
+      <c r="L74" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
+    <row r="75" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="9" t="s">
+      <c r="B75" s="17"/>
+      <c r="C75" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="10"/>
-      <c r="E75" s="9" t="s">
+      <c r="D75" s="17"/>
+      <c r="E75" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F75" s="10"/>
-      <c r="G75" s="9" t="s">
+      <c r="F75" s="17"/>
+      <c r="G75" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H75" s="10"/>
-      <c r="I75" s="9" t="s">
+      <c r="H75" s="17"/>
+      <c r="I75" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="J75" s="10"/>
-      <c r="K75" s="9" t="s">
+      <c r="J75" s="17"/>
+      <c r="K75" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L75" s="10"/>
+      <c r="L75" s="17"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="7" t="s">
+      <c r="B76" s="12"/>
+      <c r="C76" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="8"/>
-      <c r="E76" s="7" t="s">
+      <c r="D76" s="12"/>
+      <c r="E76" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F76" s="8"/>
-      <c r="G76" s="7" t="s">
+      <c r="F76" s="12"/>
+      <c r="G76" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H76" s="8"/>
-      <c r="I76" s="7" t="s">
+      <c r="H76" s="12"/>
+      <c r="I76" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J76" s="8"/>
-      <c r="K76" s="7" t="s">
+      <c r="J76" s="12"/>
+      <c r="K76" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="8"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
+      <c r="L76" s="12"/>
+    </row>
+    <row r="77" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="7" t="s">
+      <c r="B77" s="20"/>
+      <c r="C77" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D77" s="8"/>
-      <c r="E77" s="7" t="s">
+      <c r="D77" s="20"/>
+      <c r="E77" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F77" s="8"/>
-      <c r="G77" s="7" t="s">
+      <c r="F77" s="20"/>
+      <c r="G77" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="H77" s="8"/>
-      <c r="I77" s="7" t="s">
+      <c r="H77" s="20"/>
+      <c r="I77" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J77" s="8"/>
-      <c r="K77" s="7" t="s">
+      <c r="J77" s="20"/>
+      <c r="K77" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="L77" s="8"/>
+      <c r="L77" s="20"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B78" s="15"/>
-      <c r="C78" s="7" t="s">
+      <c r="B78" s="14"/>
+      <c r="C78" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D78" s="11"/>
-      <c r="E78" s="14" t="s">
+      <c r="D78" s="15"/>
+      <c r="E78" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F78" s="15"/>
-      <c r="G78" s="7" t="s">
+      <c r="F78" s="14"/>
+      <c r="G78" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H78" s="11"/>
-      <c r="I78" s="14" t="s">
+      <c r="H78" s="15"/>
+      <c r="I78" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="J78" s="15"/>
-      <c r="K78" s="7" t="s">
+      <c r="J78" s="14"/>
+      <c r="K78" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="L78" s="11"/>
+      <c r="L78" s="15"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E79" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F79" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="G79" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H79" s="8" t="s">
+      <c r="H79" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="I79" s="5" t="s">
+      <c r="I79" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J79" s="8" t="s">
+      <c r="J79" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="K79" s="7" t="s">
+      <c r="K79" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L79" s="8" t="s">
+      <c r="L79" s="4" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G80" s="7" t="s">
+      <c r="G80" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H80" s="8" t="s">
+      <c r="H80" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="I80" s="7" t="s">
+      <c r="I80" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J80" s="8" t="s">
+      <c r="J80" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="K80" s="7" t="s">
+      <c r="K80" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L80" s="8" t="s">
+      <c r="L80" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G81" s="7" t="s">
+      <c r="G81" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="H81" s="8" t="s">
+      <c r="H81" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="I81" s="7" t="s">
+      <c r="I81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J81" s="8" t="s">
+      <c r="J81" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="K81" s="7" t="s">
+      <c r="K81" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="L81" s="8" t="s">
+      <c r="L81" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C82" s="12"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="12" t="s">
+      <c r="C82" s="5"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F82" s="13" t="s">
+      <c r="F82" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="G82" s="12" t="s">
+      <c r="G82" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H82" s="13" t="s">
+      <c r="H82" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="I82" s="12" t="s">
+      <c r="I82" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J82" s="13" t="s">
+      <c r="J82" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="K82" s="12" t="s">
+      <c r="K82" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L82" s="13" t="s">
+      <c r="L82" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="s">
+    <row r="83" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B83" s="10"/>
-      <c r="C83" s="9" t="s">
+      <c r="B83" s="17"/>
+      <c r="C83" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="10"/>
-      <c r="E83" s="9" t="s">
+      <c r="D83" s="17"/>
+      <c r="E83" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F83" s="10"/>
-      <c r="I83" s="9" t="s">
+      <c r="F83" s="17"/>
+      <c r="I83" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J83" s="10"/>
+      <c r="J83" s="17"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="7" t="s">
+      <c r="B84" s="12"/>
+      <c r="C84" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D84" s="8"/>
-      <c r="E84" s="7" t="s">
+      <c r="D84" s="12"/>
+      <c r="E84" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F84" s="8"/>
-      <c r="I84" s="7" t="s">
+      <c r="F84" s="12"/>
+      <c r="I84" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J84" s="8"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
+      <c r="J84" s="12"/>
+    </row>
+    <row r="85" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B85" s="8"/>
-      <c r="C85" s="7" t="s">
+      <c r="B85" s="20"/>
+      <c r="C85" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D85" s="8"/>
-      <c r="E85" s="7" t="s">
+      <c r="D85" s="20"/>
+      <c r="E85" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F85" s="8"/>
-      <c r="I85" s="7" t="s">
+      <c r="F85" s="20"/>
+      <c r="I85" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J85" s="8"/>
+      <c r="J85" s="20"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B86" s="15"/>
-      <c r="C86" s="7" t="s">
+      <c r="B86" s="14"/>
+      <c r="C86" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D86" s="11"/>
-      <c r="E86" s="14" t="s">
+      <c r="D86" s="15"/>
+      <c r="E86" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F86" s="15"/>
-      <c r="I86" s="14" t="s">
+      <c r="F86" s="14"/>
+      <c r="I86" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="J86" s="15"/>
+      <c r="J86" s="14"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E87" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="F87" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="I87" s="5" t="s">
+      <c r="I87" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J87" s="8" t="s">
+      <c r="J87" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="F88" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="I88" s="7" t="s">
+      <c r="I88" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J88" s="8" t="s">
+      <c r="J88" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="F89" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I89" s="7" t="s">
+      <c r="I89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J89" s="8" t="s">
+      <c r="J89" s="4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C90" s="12"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="12" t="s">
+      <c r="C90" s="5"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F90" s="13" t="s">
+      <c r="F90" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I90" s="12" t="s">
+      <c r="I90" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="13" t="s">
+      <c r="J90" s="6" t="s">
         <v>171</v>
       </c>
     </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" s="8"/>
+      <c r="C91" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F91" s="8"/>
+      <c r="G91" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="H91" s="22"/>
+      <c r="I91" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="J91" s="8"/>
+      <c r="K91" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L91" s="8"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="4"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="4"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="4"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="4"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="4"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="4"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="4"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="4"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="4"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="4"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="4"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="4"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="3"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="4"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="4"/>
+    </row>
+    <row r="99" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B99" s="10"/>
+      <c r="C99" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D99" s="10"/>
+      <c r="E99" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F99" s="10"/>
+      <c r="G99" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H99" s="10"/>
+      <c r="I99" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="J99" s="10"/>
+      <c r="K99" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="L99" s="35"/>
+    </row>
+    <row r="100" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B100" s="17"/>
+      <c r="C100" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="17"/>
+      <c r="E100" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F100" s="23"/>
+      <c r="G100" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H100" s="23"/>
+      <c r="I100" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J100" s="17"/>
+      <c r="K100" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="L100" s="17"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" s="12"/>
+      <c r="C101" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" s="12"/>
+      <c r="E101" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="24"/>
+      <c r="G101" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="24"/>
+      <c r="I101" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="12"/>
+      <c r="K101" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="12"/>
+    </row>
+    <row r="102" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" s="20"/>
+      <c r="C102" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" s="20"/>
+      <c r="E102" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="25"/>
+      <c r="G102" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" s="25"/>
+      <c r="I102" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J102" s="20"/>
+      <c r="K102" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L102" s="20"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D103" s="14"/>
+      <c r="E103" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F103" s="26"/>
+      <c r="G103" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="H103" s="26"/>
+      <c r="I103" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="J103" s="14"/>
+      <c r="K103" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="L103" s="14"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I104" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="I105" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L105" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="I106" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L106" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="3"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="I107" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L107" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="37"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F108" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="G108" s="33"/>
+      <c r="H108" s="29"/>
+      <c r="I108" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J108" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="K108" s="33"/>
+      <c r="L108" s="29"/>
+    </row>
+    <row r="109" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="5"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G109" s="31"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="K109" s="31"/>
+      <c r="L109" s="6"/>
+    </row>
+    <row r="110" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B110" s="17"/>
+      <c r="C110" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="17"/>
+      <c r="E110" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F110" s="23"/>
+      <c r="G110" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="H110" s="23"/>
+      <c r="I110" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J110" s="17"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B111" s="12"/>
+      <c r="C111" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="12"/>
+      <c r="E111" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F111" s="24"/>
+      <c r="G111" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H111" s="24"/>
+      <c r="I111" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J111" s="12"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" s="20"/>
+      <c r="C112" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" s="20"/>
+      <c r="E112" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" s="25"/>
+      <c r="G112" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H112" s="25"/>
+      <c r="I112" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J112" s="20"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B113" s="15"/>
+      <c r="C113" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D113" s="14"/>
+      <c r="E113" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F113" s="26"/>
+      <c r="G113" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="H113" s="26"/>
+      <c r="I113" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="J113" s="14"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="37"/>
+      <c r="B118" s="29"/>
+      <c r="C118" s="33"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="33"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H118" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="I118" s="33"/>
+      <c r="J118" s="29"/>
+    </row>
+    <row r="119" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="5"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="31"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="31"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="I119" s="31"/>
+      <c r="J119" s="6"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B120" s="17"/>
+      <c r="C120" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="17"/>
+      <c r="E120" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F120" s="17"/>
+      <c r="G120" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="H120" s="23"/>
+      <c r="I120" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="J120" s="17"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121" s="12"/>
+      <c r="C121" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" s="12"/>
+      <c r="E121" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F121" s="12"/>
+      <c r="G121" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H121" s="24"/>
+      <c r="I121" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J121" s="12"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" s="20"/>
+      <c r="C122" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D122" s="25"/>
+      <c r="E122" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" s="20"/>
+      <c r="G122" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H122" s="25"/>
+      <c r="I122" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J122" s="20"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D123" s="30"/>
+      <c r="E123" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F123" s="14"/>
+      <c r="G123" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="H123" s="26"/>
+      <c r="I123" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="J123" s="14"/>
+    </row>
+    <row r="124" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E124" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I124" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E125" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I125" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C126" s="3"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="I126" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C127" s="3"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I127" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="37"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="33"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F128" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="G128" s="33"/>
+      <c r="H128" s="29"/>
+      <c r="I128" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J128" s="36" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="5"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="31"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G129" s="31"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="J129" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B130" s="17"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" s="12"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" s="20"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B133" s="14"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A62:B62"/>
+  <mergeCells count="88">
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="C62:D62"/>
@@ -4000,32 +5585,36 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I37:J37"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E86:F86"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="78" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
+  <rowBreaks count="2" manualBreakCount="2">
     <brk id="49" max="11" man="1"/>
+    <brk id="90" max="11" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/Прайс на полиграфию/Прайс на полиграфию.xlsx
+++ b/Прайс на полиграфию/Прайс на полиграфию.xlsx
@@ -1023,10 +1023,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1035,45 +1068,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2242,8 +2242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:B137"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2252,30 +2252,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="7" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="7" t="s">
+      <c r="J1" s="31"/>
+      <c r="K1" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="8"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -2376,134 +2376,134 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="35"/>
+      <c r="E9" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9" t="s">
+      <c r="F9" s="35"/>
+      <c r="G9" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="9" t="s">
+      <c r="H9" s="35"/>
+      <c r="I9" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="9" t="s">
+      <c r="J9" s="35"/>
+      <c r="K9" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="L9" s="35"/>
+    </row>
+    <row r="10" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="16" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="16" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="16" t="s">
+      <c r="H10" s="11"/>
+      <c r="I10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="16" t="s">
+      <c r="J10" s="11"/>
+      <c r="K10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="L10" s="17"/>
+      <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="11" t="s">
+      <c r="H11" s="8"/>
+      <c r="I11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="11" t="s">
+      <c r="J11" s="8"/>
+      <c r="K11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="12"/>
-    </row>
-    <row r="12" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="19" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="19" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="19" t="s">
+      <c r="H12" s="14"/>
+      <c r="I12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="19" t="s">
+      <c r="J12" s="14"/>
+      <c r="K12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="20"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="29"/>
+      <c r="E13" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="29"/>
+      <c r="G13" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="13" t="s">
+      <c r="H13" s="29"/>
+      <c r="I13" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="13" t="s">
+      <c r="J13" s="29"/>
+      <c r="K13" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="14"/>
+      <c r="L13" s="29"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -2645,109 +2645,109 @@
       <c r="K17" s="5"/>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="16" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="16" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="16" t="s">
+      <c r="F18" s="11"/>
+      <c r="G18" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="16" t="s">
+      <c r="H18" s="11"/>
+      <c r="I18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="16" t="s">
+      <c r="J18" s="11"/>
+      <c r="K18" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="L18" s="17"/>
+      <c r="L18" s="11"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="11" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="11" t="s">
+      <c r="F19" s="8"/>
+      <c r="G19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="11" t="s">
+      <c r="H19" s="8"/>
+      <c r="I19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="11" t="s">
+      <c r="J19" s="8"/>
+      <c r="K19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L19" s="12"/>
-    </row>
-    <row r="20" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="19" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="19" t="s">
+      <c r="F20" s="14"/>
+      <c r="G20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="19" t="s">
+      <c r="H20" s="14"/>
+      <c r="I20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="20"/>
-      <c r="K20" s="19" t="s">
+      <c r="J20" s="14"/>
+      <c r="K20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="20"/>
+      <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="13" t="s">
+      <c r="D21" s="29"/>
+      <c r="E21" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="11" t="s">
+      <c r="F21" s="29"/>
+      <c r="G21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="11" t="s">
+      <c r="H21" s="9"/>
+      <c r="I21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="11" t="s">
+      <c r="J21" s="9"/>
+      <c r="K21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="15"/>
+      <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -2901,109 +2901,109 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+    <row r="26" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="16" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="16" t="s">
+      <c r="D26" s="11"/>
+      <c r="E26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="16" t="s">
+      <c r="F26" s="11"/>
+      <c r="G26" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="16" t="s">
+      <c r="H26" s="11"/>
+      <c r="I26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="16" t="s">
+      <c r="J26" s="11"/>
+      <c r="K26" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="L26" s="17"/>
+      <c r="L26" s="11"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="11" t="s">
+      <c r="B27" s="8"/>
+      <c r="C27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="11" t="s">
+      <c r="D27" s="8"/>
+      <c r="E27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="11" t="s">
+      <c r="F27" s="8"/>
+      <c r="G27" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="11" t="s">
+      <c r="H27" s="8"/>
+      <c r="I27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="11" t="s">
+      <c r="J27" s="8"/>
+      <c r="K27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="12"/>
-    </row>
-    <row r="28" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="19" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="19" t="s">
+      <c r="D28" s="14"/>
+      <c r="E28" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="19" t="s">
+      <c r="F28" s="14"/>
+      <c r="G28" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="19" t="s">
+      <c r="H28" s="14"/>
+      <c r="I28" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J28" s="20"/>
-      <c r="K28" s="19" t="s">
+      <c r="J28" s="14"/>
+      <c r="K28" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L28" s="20"/>
+      <c r="L28" s="14"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="13" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="13" t="s">
+      <c r="D29" s="29"/>
+      <c r="E29" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="13" t="s">
+      <c r="F29" s="29"/>
+      <c r="G29" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="13" t="s">
+      <c r="H29" s="29"/>
+      <c r="I29" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="13" t="s">
+      <c r="J29" s="29"/>
+      <c r="K29" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="L29" s="14"/>
+      <c r="L29" s="29"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -3153,109 +3153,109 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+    <row r="34" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="16" t="s">
+      <c r="B34" s="11"/>
+      <c r="C34" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="19" t="s">
+      <c r="D34" s="11"/>
+      <c r="E34" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="16" t="s">
+      <c r="F34" s="11"/>
+      <c r="G34" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="17"/>
-      <c r="I34" s="16" t="s">
+      <c r="H34" s="11"/>
+      <c r="I34" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J34" s="17"/>
-      <c r="K34" s="16" t="s">
+      <c r="J34" s="11"/>
+      <c r="K34" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L34" s="17"/>
+      <c r="L34" s="11"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="11" t="s">
+      <c r="B35" s="8"/>
+      <c r="C35" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="11" t="s">
+      <c r="D35" s="8"/>
+      <c r="E35" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="11" t="s">
+      <c r="F35" s="8"/>
+      <c r="G35" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="11" t="s">
+      <c r="H35" s="8"/>
+      <c r="I35" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J35" s="12"/>
-      <c r="K35" s="11" t="s">
+      <c r="J35" s="8"/>
+      <c r="K35" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="12"/>
-    </row>
-    <row r="36" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="19" t="s">
+      <c r="B36" s="14"/>
+      <c r="C36" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="19" t="s">
+      <c r="D36" s="14"/>
+      <c r="E36" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F36" s="20"/>
-      <c r="G36" s="19" t="s">
+      <c r="F36" s="14"/>
+      <c r="G36" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="20"/>
-      <c r="I36" s="19" t="s">
+      <c r="H36" s="14"/>
+      <c r="I36" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J36" s="20"/>
-      <c r="K36" s="19" t="s">
+      <c r="J36" s="14"/>
+      <c r="K36" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L36" s="20"/>
+      <c r="L36" s="14"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="13" t="s">
+      <c r="B37" s="29"/>
+      <c r="C37" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="13" t="s">
+      <c r="D37" s="29"/>
+      <c r="E37" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="13" t="s">
+      <c r="F37" s="29"/>
+      <c r="G37" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="H37" s="14"/>
-      <c r="I37" s="13" t="s">
+      <c r="H37" s="29"/>
+      <c r="I37" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="J37" s="14"/>
-      <c r="K37" s="13" t="s">
+      <c r="J37" s="29"/>
+      <c r="K37" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="L37" s="14"/>
+      <c r="L37" s="29"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
@@ -3405,29 +3405,29 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K42" s="16" t="s">
+    <row r="42" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K42" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L42" s="17"/>
+      <c r="L42" s="11"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K43" s="11" t="s">
+      <c r="K43" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="12"/>
-    </row>
-    <row r="44" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K44" s="19" t="s">
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K44" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L44" s="20"/>
+      <c r="L44" s="14"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K45" s="13" t="s">
+      <c r="K45" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="L45" s="14"/>
+      <c r="L45" s="29"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K46" s="1" t="s">
@@ -3462,30 +3462,30 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="7" t="s">
+      <c r="B50" s="31"/>
+      <c r="C50" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="7" t="s">
+      <c r="D50" s="31"/>
+      <c r="E50" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="7" t="s">
+      <c r="F50" s="31"/>
+      <c r="G50" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="7" t="s">
+      <c r="H50" s="31"/>
+      <c r="I50" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="J50" s="8"/>
-      <c r="K50" s="7" t="s">
+      <c r="J50" s="31"/>
+      <c r="K50" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="L50" s="8"/>
+      <c r="L50" s="31"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
@@ -3586,134 +3586,134 @@
       <c r="L57" s="4"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="9" t="s">
+      <c r="B58" s="35"/>
+      <c r="C58" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="D58" s="10"/>
-      <c r="E58" s="9" t="s">
+      <c r="D58" s="35"/>
+      <c r="E58" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="F58" s="10"/>
-      <c r="G58" s="9" t="s">
+      <c r="F58" s="35"/>
+      <c r="G58" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="H58" s="10"/>
-      <c r="I58" s="9" t="s">
+      <c r="H58" s="35"/>
+      <c r="I58" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="J58" s="10"/>
-      <c r="K58" s="9" t="s">
+      <c r="J58" s="35"/>
+      <c r="K58" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="L58" s="10"/>
-    </row>
-    <row r="59" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
+      <c r="L58" s="35"/>
+    </row>
+    <row r="59" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="16" t="s">
+      <c r="B59" s="11"/>
+      <c r="C59" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="17"/>
-      <c r="E59" s="16" t="s">
+      <c r="D59" s="11"/>
+      <c r="E59" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F59" s="17"/>
-      <c r="G59" s="16" t="s">
+      <c r="F59" s="11"/>
+      <c r="G59" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H59" s="17"/>
-      <c r="I59" s="16" t="s">
+      <c r="H59" s="11"/>
+      <c r="I59" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="J59" s="17"/>
-      <c r="K59" s="16" t="s">
+      <c r="J59" s="11"/>
+      <c r="K59" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L59" s="17"/>
+      <c r="L59" s="11"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="11" t="s">
+      <c r="B60" s="8"/>
+      <c r="C60" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="12"/>
-      <c r="E60" s="11" t="s">
+      <c r="D60" s="8"/>
+      <c r="E60" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F60" s="12"/>
-      <c r="G60" s="11" t="s">
+      <c r="F60" s="8"/>
+      <c r="G60" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H60" s="12"/>
-      <c r="I60" s="11" t="s">
+      <c r="H60" s="8"/>
+      <c r="I60" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J60" s="12"/>
-      <c r="K60" s="11" t="s">
+      <c r="J60" s="8"/>
+      <c r="K60" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="12"/>
-    </row>
-    <row r="61" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
+      <c r="L60" s="8"/>
+    </row>
+    <row r="61" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="19" t="s">
+      <c r="B61" s="14"/>
+      <c r="C61" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="20"/>
-      <c r="E61" s="19" t="s">
+      <c r="D61" s="14"/>
+      <c r="E61" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F61" s="20"/>
-      <c r="G61" s="19" t="s">
+      <c r="F61" s="14"/>
+      <c r="G61" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H61" s="20"/>
-      <c r="I61" s="19" t="s">
+      <c r="H61" s="14"/>
+      <c r="I61" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J61" s="20"/>
-      <c r="K61" s="19" t="s">
+      <c r="J61" s="14"/>
+      <c r="K61" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L61" s="20"/>
+      <c r="L61" s="14"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="13" t="s">
+      <c r="B62" s="29"/>
+      <c r="C62" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D62" s="14"/>
-      <c r="E62" s="13" t="s">
+      <c r="D62" s="29"/>
+      <c r="E62" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F62" s="14"/>
-      <c r="G62" s="13" t="s">
+      <c r="F62" s="29"/>
+      <c r="G62" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="H62" s="14"/>
-      <c r="I62" s="13" t="s">
+      <c r="H62" s="29"/>
+      <c r="I62" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="J62" s="14"/>
-      <c r="K62" s="13" t="s">
+      <c r="J62" s="29"/>
+      <c r="K62" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="L62" s="14"/>
+      <c r="L62" s="29"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
@@ -3855,109 +3855,109 @@
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="16" t="s">
+    <row r="67" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="16" t="s">
+      <c r="B67" s="11"/>
+      <c r="C67" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="17"/>
-      <c r="E67" s="16" t="s">
+      <c r="D67" s="11"/>
+      <c r="E67" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F67" s="17"/>
-      <c r="G67" s="16" t="s">
+      <c r="F67" s="11"/>
+      <c r="G67" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H67" s="17"/>
-      <c r="I67" s="16" t="s">
+      <c r="H67" s="11"/>
+      <c r="I67" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J67" s="17"/>
-      <c r="K67" s="16" t="s">
+      <c r="J67" s="11"/>
+      <c r="K67" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L67" s="17"/>
+      <c r="L67" s="11"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B68" s="12"/>
-      <c r="C68" s="11" t="s">
+      <c r="B68" s="8"/>
+      <c r="C68" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D68" s="12"/>
-      <c r="E68" s="11" t="s">
+      <c r="D68" s="8"/>
+      <c r="E68" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F68" s="12"/>
-      <c r="G68" s="11" t="s">
+      <c r="F68" s="8"/>
+      <c r="G68" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H68" s="12"/>
-      <c r="I68" s="11" t="s">
+      <c r="H68" s="8"/>
+      <c r="I68" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J68" s="8"/>
+      <c r="K68" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J68" s="12"/>
-      <c r="K68" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L68" s="12"/>
-    </row>
-    <row r="69" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
+      <c r="L68" s="8"/>
+    </row>
+    <row r="69" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="19" t="s">
+      <c r="B69" s="14"/>
+      <c r="C69" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="20"/>
-      <c r="E69" s="19" t="s">
+      <c r="D69" s="14"/>
+      <c r="E69" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F69" s="20"/>
-      <c r="G69" s="19" t="s">
+      <c r="F69" s="14"/>
+      <c r="G69" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H69" s="20"/>
-      <c r="I69" s="19" t="s">
+      <c r="H69" s="14"/>
+      <c r="I69" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J69" s="20"/>
-      <c r="K69" s="19" t="s">
+      <c r="J69" s="14"/>
+      <c r="K69" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="L69" s="20"/>
+      <c r="L69" s="14"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B70" s="15"/>
-      <c r="C70" s="13" t="s">
+      <c r="B70" s="9"/>
+      <c r="C70" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D70" s="14"/>
-      <c r="E70" s="11" t="s">
+      <c r="D70" s="29"/>
+      <c r="E70" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F70" s="15"/>
-      <c r="G70" s="13" t="s">
+      <c r="F70" s="9"/>
+      <c r="G70" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="H70" s="14"/>
-      <c r="I70" s="11" t="s">
+      <c r="H70" s="29"/>
+      <c r="I70" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="J70" s="15"/>
-      <c r="K70" s="13" t="s">
+      <c r="J70" s="9"/>
+      <c r="K70" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="L70" s="14"/>
+      <c r="L70" s="29"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
@@ -4111,109 +4111,109 @@
         <v>134</v>
       </c>
     </row>
-    <row r="75" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="16" t="s">
+    <row r="75" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B75" s="17"/>
-      <c r="C75" s="16" t="s">
+      <c r="B75" s="11"/>
+      <c r="C75" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="17"/>
-      <c r="E75" s="16" t="s">
+      <c r="D75" s="11"/>
+      <c r="E75" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F75" s="17"/>
-      <c r="G75" s="16" t="s">
+      <c r="F75" s="11"/>
+      <c r="G75" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H75" s="17"/>
-      <c r="I75" s="16" t="s">
+      <c r="H75" s="11"/>
+      <c r="I75" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="J75" s="17"/>
-      <c r="K75" s="16" t="s">
+      <c r="J75" s="11"/>
+      <c r="K75" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L75" s="17"/>
+      <c r="L75" s="11"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="11" t="s">
+      <c r="B76" s="8"/>
+      <c r="C76" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="12"/>
-      <c r="E76" s="11" t="s">
+      <c r="D76" s="8"/>
+      <c r="E76" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F76" s="12"/>
-      <c r="G76" s="11" t="s">
+      <c r="F76" s="8"/>
+      <c r="G76" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H76" s="12"/>
-      <c r="I76" s="11" t="s">
+      <c r="H76" s="8"/>
+      <c r="I76" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J76" s="12"/>
-      <c r="K76" s="11" t="s">
+      <c r="J76" s="8"/>
+      <c r="K76" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="12"/>
-    </row>
-    <row r="77" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
+      <c r="L76" s="8"/>
+    </row>
+    <row r="77" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="19" t="s">
+      <c r="B77" s="14"/>
+      <c r="C77" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D77" s="20"/>
-      <c r="E77" s="19" t="s">
+      <c r="D77" s="14"/>
+      <c r="E77" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F77" s="20"/>
-      <c r="G77" s="19" t="s">
+      <c r="F77" s="14"/>
+      <c r="G77" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H77" s="20"/>
-      <c r="I77" s="19" t="s">
+      <c r="H77" s="14"/>
+      <c r="I77" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J77" s="20"/>
-      <c r="K77" s="19" t="s">
+      <c r="J77" s="14"/>
+      <c r="K77" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="L77" s="20"/>
+      <c r="L77" s="14"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="11" t="s">
+      <c r="B78" s="29"/>
+      <c r="C78" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D78" s="15"/>
-      <c r="E78" s="13" t="s">
+      <c r="D78" s="9"/>
+      <c r="E78" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F78" s="14"/>
-      <c r="G78" s="21" t="s">
+      <c r="F78" s="29"/>
+      <c r="G78" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="13" t="s">
+      <c r="H78" s="9"/>
+      <c r="I78" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="J78" s="14"/>
-      <c r="K78" s="21" t="s">
+      <c r="J78" s="29"/>
+      <c r="K78" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="L78" s="15"/>
+      <c r="L78" s="9"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
@@ -4363,77 +4363,77 @@
         <v>181</v>
       </c>
     </row>
-    <row r="83" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="16" t="s">
+    <row r="83" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B83" s="17"/>
-      <c r="C83" s="16" t="s">
+      <c r="B83" s="11"/>
+      <c r="C83" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="17"/>
-      <c r="E83" s="16" t="s">
+      <c r="D83" s="11"/>
+      <c r="E83" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F83" s="17"/>
-      <c r="I83" s="16" t="s">
+      <c r="F83" s="11"/>
+      <c r="I83" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J83" s="17"/>
+      <c r="J83" s="11"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B84" s="12"/>
-      <c r="C84" s="11" t="s">
+      <c r="B84" s="8"/>
+      <c r="C84" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D84" s="12"/>
-      <c r="E84" s="11" t="s">
+      <c r="D84" s="8"/>
+      <c r="E84" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F84" s="12"/>
-      <c r="I84" s="11" t="s">
+      <c r="F84" s="8"/>
+      <c r="I84" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J84" s="12"/>
-    </row>
-    <row r="85" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="19" t="s">
+      <c r="J84" s="8"/>
+    </row>
+    <row r="85" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="19" t="s">
+      <c r="B85" s="14"/>
+      <c r="C85" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D85" s="20"/>
-      <c r="E85" s="19" t="s">
+      <c r="D85" s="14"/>
+      <c r="E85" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F85" s="20"/>
-      <c r="I85" s="19" t="s">
+      <c r="F85" s="14"/>
+      <c r="I85" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J85" s="20"/>
+      <c r="J85" s="14"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="11" t="s">
+      <c r="B86" s="29"/>
+      <c r="C86" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D86" s="15"/>
-      <c r="E86" s="13" t="s">
+      <c r="D86" s="9"/>
+      <c r="E86" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F86" s="14"/>
-      <c r="I86" s="13" t="s">
+      <c r="F86" s="29"/>
+      <c r="I86" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="J86" s="14"/>
+      <c r="J86" s="29"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
@@ -4536,30 +4536,30 @@
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="7" t="s">
+      <c r="B91" s="31"/>
+      <c r="C91" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="D91" s="8"/>
-      <c r="E91" s="7" t="s">
+      <c r="D91" s="31"/>
+      <c r="E91" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="F91" s="8"/>
-      <c r="G91" s="22" t="s">
+      <c r="F91" s="31"/>
+      <c r="G91" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="H91" s="22"/>
-      <c r="I91" s="7" t="s">
+      <c r="H91" s="37"/>
+      <c r="I91" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="J91" s="8"/>
-      <c r="K91" s="7" t="s">
+      <c r="J91" s="31"/>
+      <c r="K91" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="L91" s="8"/>
+      <c r="L91" s="31"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
@@ -4646,134 +4646,134 @@
       <c r="L98" s="4"/>
     </row>
     <row r="99" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="B99" s="10"/>
-      <c r="C99" s="9" t="s">
+      <c r="B99" s="35"/>
+      <c r="C99" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="D99" s="10"/>
-      <c r="E99" s="9" t="s">
+      <c r="D99" s="35"/>
+      <c r="E99" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="F99" s="10"/>
-      <c r="G99" s="9" t="s">
+      <c r="F99" s="35"/>
+      <c r="G99" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="H99" s="10"/>
-      <c r="I99" s="9" t="s">
+      <c r="H99" s="35"/>
+      <c r="I99" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="J99" s="10"/>
-      <c r="K99" s="34" t="s">
+      <c r="J99" s="35"/>
+      <c r="K99" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="L99" s="35"/>
-    </row>
-    <row r="100" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="16" t="s">
+      <c r="L99" s="33"/>
+    </row>
+    <row r="100" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B100" s="17"/>
-      <c r="C100" s="16" t="s">
+      <c r="B100" s="11"/>
+      <c r="C100" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D100" s="17"/>
-      <c r="E100" s="16" t="s">
+      <c r="D100" s="11"/>
+      <c r="E100" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="F100" s="23"/>
-      <c r="G100" s="16" t="s">
+      <c r="F100" s="16"/>
+      <c r="G100" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H100" s="23"/>
-      <c r="I100" s="16" t="s">
+      <c r="H100" s="16"/>
+      <c r="I100" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="J100" s="17"/>
-      <c r="K100" s="16" t="s">
+      <c r="J100" s="11"/>
+      <c r="K100" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="L100" s="17"/>
+      <c r="L100" s="11"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B101" s="12"/>
-      <c r="C101" s="11" t="s">
+      <c r="B101" s="8"/>
+      <c r="C101" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D101" s="12"/>
-      <c r="E101" s="11" t="s">
+      <c r="D101" s="8"/>
+      <c r="E101" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F101" s="24"/>
-      <c r="G101" s="11" t="s">
+      <c r="F101" s="17"/>
+      <c r="G101" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H101" s="24"/>
-      <c r="I101" s="11" t="s">
+      <c r="H101" s="17"/>
+      <c r="I101" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J101" s="12"/>
-      <c r="K101" s="11" t="s">
+      <c r="J101" s="8"/>
+      <c r="K101" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="12"/>
-    </row>
-    <row r="102" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="19" t="s">
+      <c r="L101" s="8"/>
+    </row>
+    <row r="102" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B102" s="20"/>
-      <c r="C102" s="19" t="s">
+      <c r="B102" s="14"/>
+      <c r="C102" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D102" s="20"/>
-      <c r="E102" s="19" t="s">
+      <c r="D102" s="14"/>
+      <c r="E102" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F102" s="25"/>
-      <c r="G102" s="19" t="s">
+      <c r="F102" s="18"/>
+      <c r="G102" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H102" s="25"/>
-      <c r="I102" s="19" t="s">
+      <c r="H102" s="18"/>
+      <c r="I102" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J102" s="20"/>
-      <c r="K102" s="19" t="s">
+      <c r="J102" s="14"/>
+      <c r="K102" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L102" s="20"/>
+      <c r="L102" s="14"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="13" t="s">
+      <c r="A103" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="13" t="s">
+      <c r="B103" s="29"/>
+      <c r="C103" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D103" s="14"/>
-      <c r="E103" s="13" t="s">
+      <c r="D103" s="29"/>
+      <c r="E103" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="F103" s="26"/>
-      <c r="G103" s="13" t="s">
+      <c r="F103" s="36"/>
+      <c r="G103" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="H103" s="26"/>
-      <c r="I103" s="13" t="s">
+      <c r="H103" s="36"/>
+      <c r="I103" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="J103" s="14"/>
-      <c r="K103" s="13" t="s">
+      <c r="J103" s="29"/>
+      <c r="K103" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="L103" s="14"/>
+      <c r="L103" s="29"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
@@ -4800,7 +4800,7 @@
       <c r="H104" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="I104" s="27" t="s">
+      <c r="I104" s="19" t="s">
         <v>211</v>
       </c>
       <c r="J104" s="4" t="s">
@@ -4838,7 +4838,7 @@
       <c r="H105" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="I105" s="27" t="s">
+      <c r="I105" s="19" t="s">
         <v>212</v>
       </c>
       <c r="J105" s="4" t="s">
@@ -4876,7 +4876,7 @@
       <c r="H106" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="I106" s="27" t="s">
+      <c r="I106" s="19" t="s">
         <v>213</v>
       </c>
       <c r="J106" s="4" t="s">
@@ -4910,7 +4910,7 @@
       <c r="H107" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="I107" s="27" t="s">
+      <c r="I107" s="19" t="s">
         <v>10</v>
       </c>
       <c r="J107" s="4" t="s">
@@ -4923,137 +4923,137 @@
         <v>255</v>
       </c>
     </row>
-    <row r="108" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="37"/>
-      <c r="B108" s="29"/>
-      <c r="C108" s="33"/>
-      <c r="D108" s="29"/>
-      <c r="E108" s="33" t="s">
+    <row r="108" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="27"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F108" s="29" t="s">
+      <c r="F108" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="G108" s="33"/>
-      <c r="H108" s="29"/>
-      <c r="I108" s="28" t="s">
+      <c r="G108" s="25"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J108" s="36" t="s">
+      <c r="J108" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="K108" s="33"/>
-      <c r="L108" s="29"/>
+      <c r="K108" s="25"/>
+      <c r="L108" s="21"/>
     </row>
     <row r="109" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
       <c r="B109" s="6"/>
-      <c r="C109" s="31"/>
+      <c r="C109" s="23"/>
       <c r="D109" s="6"/>
-      <c r="E109" s="31" t="s">
+      <c r="E109" s="23" t="s">
         <v>8</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="G109" s="31"/>
+      <c r="G109" s="23"/>
       <c r="H109" s="6"/>
-      <c r="I109" s="27" t="s">
+      <c r="I109" s="19" t="s">
         <v>8</v>
       </c>
       <c r="J109" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="K109" s="31"/>
+      <c r="K109" s="23"/>
       <c r="L109" s="6"/>
     </row>
-    <row r="110" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="16" t="s">
+    <row r="110" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B110" s="17"/>
-      <c r="C110" s="16" t="s">
+      <c r="B110" s="11"/>
+      <c r="C110" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D110" s="17"/>
-      <c r="E110" s="16" t="s">
+      <c r="D110" s="11"/>
+      <c r="E110" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="F110" s="23"/>
-      <c r="G110" s="16" t="s">
+      <c r="F110" s="16"/>
+      <c r="G110" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="H110" s="23"/>
-      <c r="I110" s="16" t="s">
+      <c r="H110" s="16"/>
+      <c r="I110" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="J110" s="17"/>
+      <c r="J110" s="11"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="11" t="s">
+      <c r="A111" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B111" s="12"/>
-      <c r="C111" s="11" t="s">
+      <c r="B111" s="8"/>
+      <c r="C111" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D111" s="12"/>
-      <c r="E111" s="11" t="s">
+      <c r="D111" s="8"/>
+      <c r="E111" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F111" s="24"/>
-      <c r="G111" s="11" t="s">
+      <c r="F111" s="17"/>
+      <c r="G111" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H111" s="24"/>
-      <c r="I111" s="11" t="s">
+      <c r="H111" s="17"/>
+      <c r="I111" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J111" s="12"/>
+      <c r="J111" s="8"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="19" t="s">
+      <c r="A112" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B112" s="20"/>
-      <c r="C112" s="19" t="s">
+      <c r="B112" s="14"/>
+      <c r="C112" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D112" s="20"/>
-      <c r="E112" s="19" t="s">
+      <c r="D112" s="14"/>
+      <c r="E112" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F112" s="25"/>
-      <c r="G112" s="19" t="s">
+      <c r="F112" s="18"/>
+      <c r="G112" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H112" s="25"/>
-      <c r="I112" s="19" t="s">
+      <c r="H112" s="18"/>
+      <c r="I112" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J112" s="20"/>
+      <c r="J112" s="14"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="11" t="s">
+      <c r="A113" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B113" s="15"/>
-      <c r="C113" s="13" t="s">
+      <c r="B113" s="9"/>
+      <c r="C113" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D113" s="14"/>
-      <c r="E113" s="13" t="s">
+      <c r="D113" s="29"/>
+      <c r="E113" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="F113" s="26"/>
-      <c r="G113" s="13" t="s">
+      <c r="F113" s="36"/>
+      <c r="G113" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="H113" s="26"/>
-      <c r="I113" s="13" t="s">
+      <c r="H113" s="36"/>
+      <c r="I113" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="J113" s="14"/>
+      <c r="J113" s="29"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
@@ -5119,7 +5119,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="116" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>8</v>
       </c>
@@ -5183,127 +5183,127 @@
         <v>248</v>
       </c>
     </row>
-    <row r="118" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="37"/>
-      <c r="B118" s="29"/>
-      <c r="C118" s="33"/>
-      <c r="D118" s="29"/>
-      <c r="E118" s="33"/>
-      <c r="F118" s="29"/>
-      <c r="G118" s="33" t="s">
+    <row r="118" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="27"/>
+      <c r="B118" s="21"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="25"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H118" s="29" t="s">
+      <c r="H118" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="I118" s="33"/>
-      <c r="J118" s="29"/>
+      <c r="I118" s="25"/>
+      <c r="J118" s="21"/>
     </row>
     <row r="119" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
       <c r="B119" s="6"/>
-      <c r="C119" s="31"/>
+      <c r="C119" s="23"/>
       <c r="D119" s="6"/>
-      <c r="E119" s="31"/>
+      <c r="E119" s="23"/>
       <c r="F119" s="6"/>
-      <c r="G119" s="31" t="s">
+      <c r="G119" s="23" t="s">
         <v>8</v>
       </c>
       <c r="H119" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="I119" s="31"/>
+      <c r="I119" s="23"/>
       <c r="J119" s="6"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="16" t="s">
+      <c r="A120" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B120" s="17"/>
-      <c r="C120" s="16" t="s">
+      <c r="B120" s="11"/>
+      <c r="C120" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D120" s="17"/>
-      <c r="E120" s="16" t="s">
+      <c r="D120" s="11"/>
+      <c r="E120" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F120" s="17"/>
-      <c r="G120" s="23" t="s">
+      <c r="F120" s="11"/>
+      <c r="G120" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="H120" s="23"/>
-      <c r="I120" s="16" t="s">
+      <c r="H120" s="16"/>
+      <c r="I120" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="J120" s="17"/>
+      <c r="J120" s="11"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="11" t="s">
+      <c r="A121" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B121" s="12"/>
-      <c r="C121" s="11" t="s">
+      <c r="B121" s="8"/>
+      <c r="C121" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D121" s="12"/>
-      <c r="E121" s="11" t="s">
+      <c r="D121" s="8"/>
+      <c r="E121" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F121" s="12"/>
-      <c r="G121" s="24" t="s">
+      <c r="F121" s="8"/>
+      <c r="G121" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H121" s="24"/>
-      <c r="I121" s="11" t="s">
+      <c r="H121" s="17"/>
+      <c r="I121" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J121" s="12"/>
+      <c r="J121" s="8"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="19" t="s">
+      <c r="A122" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B122" s="20"/>
-      <c r="C122" s="19" t="s">
+      <c r="B122" s="14"/>
+      <c r="C122" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D122" s="25"/>
-      <c r="E122" s="19" t="s">
+      <c r="D122" s="18"/>
+      <c r="E122" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F122" s="20"/>
-      <c r="G122" s="25" t="s">
+      <c r="F122" s="14"/>
+      <c r="G122" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H122" s="25"/>
-      <c r="I122" s="19" t="s">
+      <c r="H122" s="18"/>
+      <c r="I122" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J122" s="20"/>
+      <c r="J122" s="14"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="13" t="s">
+      <c r="A123" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="11" t="s">
+      <c r="B123" s="29"/>
+      <c r="C123" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D123" s="30"/>
-      <c r="E123" s="13" t="s">
+      <c r="D123" s="22"/>
+      <c r="E123" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="F123" s="14"/>
-      <c r="G123" s="26" t="s">
+      <c r="F123" s="29"/>
+      <c r="G123" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="H123" s="26"/>
-      <c r="I123" s="13" t="s">
+      <c r="H123" s="36"/>
+      <c r="I123" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="J123" s="14"/>
-    </row>
-    <row r="124" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J123" s="29"/>
+    </row>
+    <row r="124" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>4</v>
       </c>
@@ -5316,7 +5316,7 @@
       <c r="D124" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E124" s="27" t="s">
+      <c r="E124" s="19" t="s">
         <v>211</v>
       </c>
       <c r="F124" s="4" t="s">
@@ -5328,7 +5328,7 @@
       <c r="H124" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="I124" s="27" t="s">
+      <c r="I124" s="19" t="s">
         <v>211</v>
       </c>
       <c r="J124" s="4" t="s">
@@ -5348,7 +5348,7 @@
       <c r="D125" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E125" s="27" t="s">
+      <c r="E125" s="19" t="s">
         <v>212</v>
       </c>
       <c r="F125" s="4" t="s">
@@ -5360,14 +5360,14 @@
       <c r="H125" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I125" s="27" t="s">
+      <c r="I125" s="19" t="s">
         <v>212</v>
       </c>
       <c r="J125" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="126" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>8</v>
       </c>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="4"/>
-      <c r="E126" s="27" t="s">
+      <c r="E126" s="19" t="s">
         <v>213</v>
       </c>
       <c r="F126" s="4" t="s">
@@ -5388,7 +5388,7 @@
       <c r="H126" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="I126" s="27" t="s">
+      <c r="I126" s="19" t="s">
         <v>213</v>
       </c>
       <c r="J126" s="4" t="s">
@@ -5404,7 +5404,7 @@
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="4"/>
-      <c r="E127" s="27" t="s">
+      <c r="E127" s="19" t="s">
         <v>10</v>
       </c>
       <c r="F127" s="4" t="s">
@@ -5416,7 +5416,7 @@
       <c r="H127" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="I127" s="27" t="s">
+      <c r="I127" s="19" t="s">
         <v>10</v>
       </c>
       <c r="J127" s="4" t="s">
@@ -5424,39 +5424,39 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="37"/>
-      <c r="B128" s="29"/>
-      <c r="C128" s="33"/>
-      <c r="D128" s="29"/>
-      <c r="E128" s="28" t="s">
+      <c r="A128" s="27"/>
+      <c r="B128" s="21"/>
+      <c r="C128" s="25"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F128" s="36" t="s">
+      <c r="F128" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="G128" s="33"/>
-      <c r="H128" s="29"/>
-      <c r="I128" s="28" t="s">
+      <c r="G128" s="25"/>
+      <c r="H128" s="21"/>
+      <c r="I128" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J128" s="36" t="s">
+      <c r="J128" s="26" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="6"/>
-      <c r="C129" s="31"/>
+      <c r="C129" s="23"/>
       <c r="D129" s="6"/>
-      <c r="E129" s="32" t="s">
+      <c r="E129" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="G129" s="31"/>
+      <c r="G129" s="23"/>
       <c r="H129" s="6"/>
-      <c r="I129" s="32" t="s">
+      <c r="I129" s="24" t="s">
         <v>8</v>
       </c>
       <c r="J129" s="6" t="s">
@@ -5464,28 +5464,28 @@
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="16" t="s">
+      <c r="A130" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B130" s="17"/>
+      <c r="B130" s="11"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="11" t="s">
+      <c r="A131" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B131" s="12"/>
+      <c r="B131" s="8"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="19" t="s">
+      <c r="A132" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B132" s="20"/>
+      <c r="B132" s="14"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="13" t="s">
+      <c r="A133" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B133" s="14"/>
+      <c r="B133" s="29"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
@@ -5521,54 +5521,30 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="K103:L103"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="I123:J123"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A62:B62"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="C62:D62"/>
@@ -5585,30 +5561,54 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="I103:J103"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="78" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Прайс на полиграфию/Прайс на полиграфию.xlsx
+++ b/Прайс на полиграфию/Прайс на полиграфию.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$137</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -132,9 +132,6 @@
     <t>404 грн</t>
   </si>
   <si>
-    <t>378 грн</t>
-  </si>
-  <si>
     <t>142 грн</t>
   </si>
   <si>
@@ -787,6 +784,9 @@
   </si>
   <si>
     <t>6308 грн</t>
+  </si>
+  <si>
+    <t>738 грн</t>
   </si>
 </sst>
 </file>
@@ -1056,12 +1056,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1072,6 +1066,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2242,8 +2242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2265,15 +2265,15 @@
       </c>
       <c r="F1" s="31"/>
       <c r="G1" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J1" s="31"/>
       <c r="K1" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L1" s="31"/>
     </row>
@@ -2376,30 +2376,30 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="34" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="34" t="s">
+      <c r="D9" s="33"/>
+      <c r="E9" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="L9" s="35"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="33"/>
+      <c r="I9" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="33"/>
+      <c r="K9" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" s="33"/>
     </row>
     <row r="10" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="10" t="s">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L10" s="11"/>
     </row>
@@ -2481,27 +2481,27 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13" s="29"/>
       <c r="I13" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J13" s="29"/>
       <c r="K13" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" s="29"/>
     </row>
@@ -2528,19 +2528,19 @@
         <v>10</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2563,22 +2563,22 @@
         <v>15</v>
       </c>
       <c r="G15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2606,13 +2606,13 @@
         <v>8</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2640,7 +2640,7 @@
         <v>10</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="6"/>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="10" t="s">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L18" s="11"/>
     </row>
@@ -2725,27 +2725,27 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L21" s="9"/>
     </row>
@@ -2778,13 +2778,13 @@
         <v>4</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2810,19 +2810,19 @@
         <v>6</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>6</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2848,19 +2848,19 @@
         <v>8</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2880,25 +2880,25 @@
         <v>10</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="10" t="s">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L26" s="11"/>
     </row>
@@ -2955,15 +2955,15 @@
     </row>
     <row r="28" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="13" t="s">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J28" s="14"/>
       <c r="K28" s="13" t="s">
@@ -2981,27 +2981,27 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" s="29"/>
       <c r="E29" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H29" s="29"/>
       <c r="I29" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J29" s="29"/>
       <c r="K29" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L29" s="29"/>
     </row>
@@ -3022,63 +3022,63 @@
         <v>4</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>6</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -3098,25 +3098,25 @@
         <v>8</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3136,13 +3136,13 @@
         <v>10</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="6"/>
@@ -3150,7 +3150,7 @@
         <v>10</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="10" t="s">
@@ -3207,15 +3207,15 @@
     </row>
     <row r="36" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F36" s="14"/>
       <c r="G36" s="13" t="s">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J36" s="14"/>
       <c r="K36" s="13" t="s">
@@ -3233,27 +3233,27 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D37" s="29"/>
       <c r="E37" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H37" s="29"/>
       <c r="I37" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J37" s="29"/>
       <c r="K37" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L37" s="29"/>
     </row>
@@ -3274,13 +3274,13 @@
         <v>4</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>4</v>
@@ -3292,45 +3292,45 @@
         <v>4</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>6</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -3350,25 +3350,25 @@
         <v>8</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3388,13 +3388,13 @@
         <v>10</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="6"/>
@@ -3402,7 +3402,7 @@
         <v>10</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3425,7 +3425,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K45" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L45" s="29"/>
     </row>
@@ -3434,7 +3434,7 @@
         <v>4</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -3442,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -3450,7 +3450,7 @@
         <v>8</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3458,32 +3458,32 @@
         <v>10</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B50" s="31"/>
       <c r="C50" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D50" s="31"/>
       <c r="E50" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F50" s="31"/>
       <c r="G50" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H50" s="31"/>
       <c r="I50" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J50" s="31"/>
       <c r="K50" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L50" s="31"/>
     </row>
@@ -3586,34 +3586,34 @@
       <c r="L57" s="4"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="B58" s="35"/>
-      <c r="C58" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="D58" s="35"/>
-      <c r="E58" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="F58" s="35"/>
-      <c r="G58" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="H58" s="35"/>
-      <c r="I58" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="J58" s="35"/>
-      <c r="K58" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="L58" s="35"/>
+      <c r="A58" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="33"/>
+      <c r="C58" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" s="33"/>
+      <c r="E58" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="F58" s="33"/>
+      <c r="G58" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="H58" s="33"/>
+      <c r="I58" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="J58" s="33"/>
+      <c r="K58" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="L58" s="33"/>
     </row>
     <row r="59" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="10" t="s">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F59" s="11"/>
       <c r="G59" s="10" t="s">
@@ -3629,7 +3629,7 @@
       </c>
       <c r="H59" s="11"/>
       <c r="I59" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J59" s="11"/>
       <c r="K59" s="10" t="s">
@@ -3691,27 +3691,27 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62" s="29"/>
       <c r="C62" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D62" s="29"/>
       <c r="E62" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F62" s="29"/>
       <c r="G62" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H62" s="29"/>
       <c r="I62" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J62" s="29"/>
       <c r="K62" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L62" s="29"/>
     </row>
@@ -3720,113 +3720,113 @@
         <v>10</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>6</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3836,7 +3836,7 @@
         <v>10</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="6"/>
@@ -3844,7 +3844,7 @@
         <v>10</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I66" s="5"/>
       <c r="J66" s="6"/>
@@ -3852,12 +3852,12 @@
         <v>10</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="10" t="s">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F67" s="11"/>
       <c r="G67" s="10" t="s">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="H67" s="11"/>
       <c r="I67" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J67" s="11"/>
       <c r="K67" s="10" t="s">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="F69" s="14"/>
       <c r="G69" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H69" s="14"/>
       <c r="I69" s="13" t="s">
@@ -3929,33 +3929,33 @@
       </c>
       <c r="J69" s="14"/>
       <c r="K69" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L69" s="14"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D70" s="29"/>
       <c r="E70" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H70" s="29"/>
       <c r="I70" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J70" s="9"/>
       <c r="K70" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L70" s="29"/>
     </row>
@@ -3964,37 +3964,37 @@
         <v>4</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -4002,37 +4002,37 @@
         <v>6</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -4040,37 +4040,37 @@
         <v>8</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G73" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H73" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="I73" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4078,42 +4078,42 @@
         <v>10</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K74" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B75" s="11"/>
       <c r="C75" s="10" t="s">
@@ -4121,7 +4121,7 @@
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F75" s="11"/>
       <c r="G75" s="10" t="s">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="H75" s="11"/>
       <c r="I75" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J75" s="11"/>
       <c r="K75" s="10" t="s">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="B77" s="14"/>
       <c r="C77" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D77" s="14"/>
       <c r="E77" s="13" t="s">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="F77" s="14"/>
       <c r="G77" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H77" s="14"/>
       <c r="I77" s="13" t="s">
@@ -4185,33 +4185,33 @@
       </c>
       <c r="J77" s="14"/>
       <c r="K77" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L77" s="14"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B78" s="29"/>
       <c r="C78" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F78" s="29"/>
       <c r="G78" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H78" s="9"/>
       <c r="I78" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J78" s="29"/>
       <c r="K78" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L78" s="9"/>
     </row>
@@ -4220,37 +4220,37 @@
         <v>4</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -4258,37 +4258,37 @@
         <v>6</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -4296,37 +4296,37 @@
         <v>8</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4334,7 +4334,7 @@
         <v>10</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="6"/>
@@ -4342,30 +4342,30 @@
         <v>10</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I82" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K82" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="10" t="s">
@@ -4405,7 +4405,7 @@
       </c>
       <c r="B85" s="14"/>
       <c r="C85" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D85" s="14"/>
       <c r="E85" s="13" t="s">
@@ -4419,19 +4419,19 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B86" s="29"/>
       <c r="C86" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F86" s="29"/>
       <c r="I86" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J86" s="29"/>
     </row>
@@ -4440,25 +4440,25 @@
         <v>4</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -4466,25 +4466,25 @@
         <v>6</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I88" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -4492,25 +4492,25 @@
         <v>8</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4518,7 +4518,7 @@
         <v>10</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="6"/>
@@ -4526,38 +4526,38 @@
         <v>10</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I90" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B91" s="31"/>
       <c r="C91" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D91" s="31"/>
       <c r="E91" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F91" s="31"/>
-      <c r="G91" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="H91" s="37"/>
+      <c r="G91" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="H91" s="35"/>
       <c r="I91" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J91" s="31"/>
       <c r="K91" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L91" s="31"/>
     </row>
@@ -4646,34 +4646,34 @@
       <c r="L98" s="4"/>
     </row>
     <row r="99" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="B99" s="35"/>
-      <c r="C99" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="D99" s="35"/>
-      <c r="E99" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="F99" s="35"/>
-      <c r="G99" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="H99" s="35"/>
-      <c r="I99" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="J99" s="35"/>
-      <c r="K99" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="L99" s="33"/>
+      <c r="A99" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="B99" s="33"/>
+      <c r="C99" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D99" s="33"/>
+      <c r="E99" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="F99" s="33"/>
+      <c r="G99" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="H99" s="33"/>
+      <c r="I99" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="J99" s="33"/>
+      <c r="K99" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="L99" s="37"/>
     </row>
     <row r="100" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B100" s="11"/>
       <c r="C100" s="10" t="s">
@@ -4681,19 +4681,19 @@
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F100" s="16"/>
       <c r="G100" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H100" s="16"/>
       <c r="I100" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J100" s="11"/>
       <c r="K100" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L100" s="11"/>
     </row>
@@ -4751,27 +4751,27 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B103" s="29"/>
       <c r="C103" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D103" s="29"/>
       <c r="E103" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="F103" s="36"/>
+        <v>209</v>
+      </c>
+      <c r="F103" s="34"/>
       <c r="G103" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="H103" s="36"/>
+        <v>213</v>
+      </c>
+      <c r="H103" s="34"/>
       <c r="I103" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J103" s="29"/>
       <c r="K103" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L103" s="29"/>
     </row>
@@ -4780,113 +4780,113 @@
         <v>10</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I104" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I105" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I106" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>6</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -4896,31 +4896,31 @@
         <v>10</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I107" s="19" t="s">
         <v>10</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K107" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="108" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4932,7 +4932,7 @@
         <v>6</v>
       </c>
       <c r="F108" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G108" s="25"/>
       <c r="H108" s="21"/>
@@ -4940,7 +4940,7 @@
         <v>6</v>
       </c>
       <c r="J108" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K108" s="25"/>
       <c r="L108" s="21"/>
@@ -4954,7 +4954,7 @@
         <v>8</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G109" s="23"/>
       <c r="H109" s="6"/>
@@ -4962,14 +4962,14 @@
         <v>8</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K109" s="23"/>
       <c r="L109" s="6"/>
     </row>
     <row r="110" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B110" s="11"/>
       <c r="C110" s="10" t="s">
@@ -4977,15 +4977,15 @@
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F110" s="16"/>
       <c r="G110" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H110" s="16"/>
       <c r="I110" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J110" s="11"/>
     </row>
@@ -5035,23 +5035,23 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D113" s="29"/>
       <c r="E113" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="F113" s="36"/>
+        <v>213</v>
+      </c>
+      <c r="F113" s="34"/>
       <c r="G113" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="H113" s="36"/>
+        <v>209</v>
+      </c>
+      <c r="H113" s="34"/>
       <c r="I113" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J113" s="29"/>
     </row>
@@ -5060,31 +5060,31 @@
         <v>4</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -5092,31 +5092,31 @@
         <v>6</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I115" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="116" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5124,31 +5124,31 @@
         <v>8</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -5156,31 +5156,31 @@
         <v>10</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I117" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="118" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5194,7 +5194,7 @@
         <v>6</v>
       </c>
       <c r="H118" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I118" s="25"/>
       <c r="J118" s="21"/>
@@ -5210,14 +5210,14 @@
         <v>8</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I119" s="23"/>
       <c r="J119" s="6"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B120" s="11"/>
       <c r="C120" s="10" t="s">
@@ -5225,15 +5225,15 @@
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F120" s="11"/>
       <c r="G120" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H120" s="16"/>
       <c r="I120" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J120" s="11"/>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="B122" s="14"/>
       <c r="C122" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D122" s="18"/>
       <c r="E122" s="13" t="s">
@@ -5283,23 +5283,23 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B123" s="29"/>
       <c r="C123" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D123" s="22"/>
       <c r="E123" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F123" s="29"/>
-      <c r="G123" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="H123" s="36"/>
+      <c r="G123" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="H123" s="34"/>
       <c r="I123" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J123" s="29"/>
     </row>
@@ -5308,31 +5308,31 @@
         <v>4</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E124" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I124" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -5340,31 +5340,31 @@
         <v>6</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E125" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I125" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="126" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5372,27 +5372,27 @@
         <v>8</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="4"/>
       <c r="E126" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I126" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -5400,7 +5400,7 @@
         <v>10</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="4"/>
@@ -5408,19 +5408,19 @@
         <v>10</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I127" s="19" t="s">
         <v>10</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -5432,7 +5432,7 @@
         <v>6</v>
       </c>
       <c r="F128" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G128" s="25"/>
       <c r="H128" s="21"/>
@@ -5440,7 +5440,7 @@
         <v>6</v>
       </c>
       <c r="J128" s="26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5452,7 +5452,7 @@
         <v>8</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G129" s="23"/>
       <c r="H129" s="6"/>
@@ -5460,12 +5460,12 @@
         <v>8</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B130" s="11"/>
     </row>
@@ -5483,7 +5483,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B133" s="29"/>
     </row>
@@ -5492,7 +5492,7 @@
         <v>4</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -5500,7 +5500,7 @@
         <v>6</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -5508,7 +5508,7 @@
         <v>8</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5516,35 +5516,59 @@
         <v>10</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="C62:D62"/>
@@ -5561,54 +5585,30 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I37:J37"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="I123:J123"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="K103:L103"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E86:F86"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="78" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Прайс на полиграфию/Прайс на полиграфию.xlsx
+++ b/Прайс на полиграфию/Прайс на полиграфию.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="260">
   <si>
     <t>Визитка</t>
   </si>
@@ -354,9 +354,6 @@
     <t>460 грн</t>
   </si>
   <si>
-    <t>730 грн</t>
-  </si>
-  <si>
     <t>185 грн</t>
   </si>
   <si>
@@ -787,6 +784,21 @@
   </si>
   <si>
     <t>738 грн</t>
+  </si>
+  <si>
+    <t>780 грн</t>
+  </si>
+  <si>
+    <t>Матовая с обеих сторон</t>
+  </si>
+  <si>
+    <t>144 грн</t>
+  </si>
+  <si>
+    <t>386 грн</t>
+  </si>
+  <si>
+    <t>642 грн</t>
   </si>
 </sst>
 </file>
@@ -1056,6 +1068,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1066,12 +1084,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2242,8 +2254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2376,30 +2388,30 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="32" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="32" t="s">
+      <c r="D9" s="35"/>
+      <c r="E9" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="32" t="s">
+      <c r="F9" s="35"/>
+      <c r="G9" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="32" t="s">
+      <c r="H9" s="35"/>
+      <c r="I9" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="32" t="s">
+      <c r="J9" s="35"/>
+      <c r="K9" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="L9" s="33"/>
+      <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
@@ -2880,7 +2892,7 @@
         <v>10</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>10</v>
@@ -3406,30 +3418,52 @@
       </c>
     </row>
     <row r="42" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="11"/>
       <c r="K42" s="10" t="s">
         <v>12</v>
       </c>
       <c r="L42" s="11"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="8"/>
       <c r="K43" s="7" t="s">
         <v>3</v>
       </c>
       <c r="L43" s="8"/>
     </row>
     <row r="44" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B44" s="14"/>
       <c r="K44" s="13" t="s">
         <v>13</v>
       </c>
       <c r="L44" s="14"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="29"/>
       <c r="K45" s="28" t="s">
         <v>66</v>
       </c>
       <c r="L45" s="29"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>257</v>
+      </c>
       <c r="K46" s="1" t="s">
         <v>4</v>
       </c>
@@ -3438,6 +3472,12 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="K47" s="3" t="s">
         <v>6</v>
       </c>
@@ -3446,6 +3486,12 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>258</v>
+      </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3454,6 +3500,12 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>259</v>
+      </c>
       <c r="K49" s="5" t="s">
         <v>10</v>
       </c>
@@ -3471,19 +3523,19 @@
       </c>
       <c r="D50" s="31"/>
       <c r="E50" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F50" s="31"/>
       <c r="G50" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H50" s="31"/>
       <c r="I50" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J50" s="31"/>
       <c r="K50" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L50" s="31"/>
     </row>
@@ -3586,30 +3638,30 @@
       <c r="L57" s="4"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="32" t="s">
+      <c r="A58" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B58" s="33"/>
-      <c r="C58" s="32" t="s">
+      <c r="B58" s="35"/>
+      <c r="C58" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="D58" s="33"/>
-      <c r="E58" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="F58" s="33"/>
-      <c r="G58" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="H58" s="33"/>
-      <c r="I58" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="J58" s="33"/>
-      <c r="K58" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="L58" s="33"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="F58" s="35"/>
+      <c r="G58" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H58" s="35"/>
+      <c r="I58" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="J58" s="35"/>
+      <c r="K58" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="L58" s="35"/>
     </row>
     <row r="59" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
@@ -3726,31 +3778,31 @@
         <v>4</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3764,31 +3816,31 @@
         <v>6</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>50</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>6</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3802,31 +3854,31 @@
         <v>8</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I65" s="3" t="s">
         <v>83</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3836,7 +3888,7 @@
         <v>10</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="6"/>
@@ -3844,7 +3896,7 @@
         <v>10</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I66" s="5"/>
       <c r="J66" s="6"/>
@@ -3852,7 +3904,7 @@
         <v>10</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3970,7 +4022,7 @@
         <v>4</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>4</v>
@@ -3982,19 +4034,19 @@
         <v>4</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -4014,25 +4066,25 @@
         <v>6</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>41</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -4046,31 +4098,31 @@
         <v>8</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G73" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H73" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="H73" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="I73" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4078,37 +4130,37 @@
         <v>10</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>111</v>
+        <v>255</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K74" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4220,37 +4272,37 @@
         <v>4</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -4258,37 +4310,37 @@
         <v>6</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>41</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -4302,31 +4354,31 @@
         <v>8</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4334,7 +4386,7 @@
         <v>10</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="6"/>
@@ -4342,25 +4394,25 @@
         <v>10</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I82" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K82" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="83" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4440,7 +4492,7 @@
         <v>4</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>4</v>
@@ -4452,13 +4504,13 @@
         <v>4</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -4466,25 +4518,25 @@
         <v>6</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I88" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -4498,19 +4550,19 @@
         <v>8</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4518,7 +4570,7 @@
         <v>10</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="6"/>
@@ -4526,38 +4578,38 @@
         <v>10</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I90" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B91" s="31"/>
       <c r="C91" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D91" s="31"/>
       <c r="E91" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F91" s="31"/>
-      <c r="G91" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="H91" s="35"/>
+      <c r="G91" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="H91" s="37"/>
       <c r="I91" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J91" s="31"/>
       <c r="K91" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L91" s="31"/>
     </row>
@@ -4646,30 +4698,30 @@
       <c r="L98" s="4"/>
     </row>
     <row r="99" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="B99" s="33"/>
-      <c r="C99" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="D99" s="33"/>
-      <c r="E99" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="F99" s="33"/>
-      <c r="G99" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="H99" s="33"/>
-      <c r="I99" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="J99" s="33"/>
-      <c r="K99" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="L99" s="37"/>
+      <c r="A99" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="B99" s="35"/>
+      <c r="C99" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D99" s="35"/>
+      <c r="E99" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="F99" s="35"/>
+      <c r="G99" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="H99" s="35"/>
+      <c r="I99" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="J99" s="35"/>
+      <c r="K99" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="L99" s="33"/>
     </row>
     <row r="100" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
@@ -4681,7 +4733,7 @@
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F100" s="16"/>
       <c r="G100" s="10" t="s">
@@ -4693,7 +4745,7 @@
       </c>
       <c r="J100" s="11"/>
       <c r="K100" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L100" s="11"/>
     </row>
@@ -4759,19 +4811,19 @@
       </c>
       <c r="D103" s="29"/>
       <c r="E103" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="F103" s="34"/>
+        <v>208</v>
+      </c>
+      <c r="F103" s="36"/>
       <c r="G103" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="H103" s="34"/>
+        <v>212</v>
+      </c>
+      <c r="H103" s="36"/>
       <c r="I103" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J103" s="29"/>
       <c r="K103" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L103" s="29"/>
     </row>
@@ -4780,37 +4832,37 @@
         <v>10</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I104" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -4818,37 +4870,37 @@
         <v>50</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I105" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -4856,37 +4908,37 @@
         <v>83</v>
       </c>
       <c r="B106" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F106" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I106" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>6</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -4896,31 +4948,31 @@
         <v>10</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I107" s="19" t="s">
         <v>10</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K107" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="108" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4932,7 +4984,7 @@
         <v>6</v>
       </c>
       <c r="F108" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G108" s="25"/>
       <c r="H108" s="21"/>
@@ -4940,7 +4992,7 @@
         <v>6</v>
       </c>
       <c r="J108" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K108" s="25"/>
       <c r="L108" s="21"/>
@@ -4954,7 +5006,7 @@
         <v>8</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G109" s="23"/>
       <c r="H109" s="6"/>
@@ -4962,7 +5014,7 @@
         <v>8</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K109" s="23"/>
       <c r="L109" s="6"/>
@@ -4977,11 +5029,11 @@
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F110" s="16"/>
       <c r="G110" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H110" s="16"/>
       <c r="I110" s="10" t="s">
@@ -5043,15 +5095,15 @@
       </c>
       <c r="D113" s="29"/>
       <c r="E113" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="F113" s="34"/>
+        <v>212</v>
+      </c>
+      <c r="F113" s="36"/>
       <c r="G113" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="H113" s="34"/>
+        <v>208</v>
+      </c>
+      <c r="H113" s="36"/>
       <c r="I113" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J113" s="29"/>
     </row>
@@ -5060,31 +5112,31 @@
         <v>4</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -5092,31 +5144,31 @@
         <v>6</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I115" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="116" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5124,31 +5176,31 @@
         <v>8</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -5156,31 +5208,31 @@
         <v>10</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I117" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="118" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5194,7 +5246,7 @@
         <v>6</v>
       </c>
       <c r="H118" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I118" s="25"/>
       <c r="J118" s="21"/>
@@ -5210,7 +5262,7 @@
         <v>8</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I119" s="23"/>
       <c r="J119" s="6"/>
@@ -5229,11 +5281,11 @@
       </c>
       <c r="F120" s="11"/>
       <c r="G120" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H120" s="16"/>
       <c r="I120" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J120" s="11"/>
     </row>
@@ -5291,15 +5343,15 @@
       </c>
       <c r="D123" s="22"/>
       <c r="E123" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F123" s="29"/>
-      <c r="G123" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="H123" s="34"/>
+      <c r="G123" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="H123" s="36"/>
       <c r="I123" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J123" s="29"/>
     </row>
@@ -5308,31 +5360,31 @@
         <v>4</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E124" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I124" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -5340,31 +5392,31 @@
         <v>6</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E125" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I125" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="126" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5372,12 +5424,12 @@
         <v>8</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="4"/>
       <c r="E126" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>93</v>
@@ -5386,13 +5438,13 @@
         <v>6</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I126" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -5400,7 +5452,7 @@
         <v>10</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="4"/>
@@ -5408,19 +5460,19 @@
         <v>10</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I127" s="19" t="s">
         <v>10</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -5432,7 +5484,7 @@
         <v>6</v>
       </c>
       <c r="F128" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G128" s="25"/>
       <c r="H128" s="21"/>
@@ -5440,7 +5492,7 @@
         <v>6</v>
       </c>
       <c r="J128" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5452,7 +5504,7 @@
         <v>8</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G129" s="23"/>
       <c r="H129" s="6"/>
@@ -5460,7 +5512,7 @@
         <v>8</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -5492,7 +5544,7 @@
         <v>4</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -5500,7 +5552,7 @@
         <v>6</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -5508,7 +5560,7 @@
         <v>8</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5516,59 +5568,36 @@
         <v>10</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="K103:L103"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="I123:J123"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
+  <mergeCells count="89">
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A62:B62"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="C62:D62"/>
@@ -5585,30 +5614,54 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="I103:J103"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="78" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Прайс на полиграфию/Прайс на полиграфию.xlsx
+++ b/Прайс на полиграфию/Прайс на полиграфию.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$137</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$N$167</definedName>
   </definedNames>
   <calcPr calcId="122211" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="322">
   <si>
     <t>Визитка</t>
   </si>
@@ -48,15 +48,9 @@
     <t>5000 шт</t>
   </si>
   <si>
-    <t>170 грн</t>
-  </si>
-  <si>
     <t>10000 шт</t>
   </si>
   <si>
-    <t>320 грн</t>
-  </si>
-  <si>
     <t>Плотность 350 гр/кв.м</t>
   </si>
   <si>
@@ -72,18 +66,12 @@
     <t>253 грн</t>
   </si>
   <si>
-    <t>437 грн</t>
-  </si>
-  <si>
     <t>Исполнение за 24 часа</t>
   </si>
   <si>
     <t>105 грн</t>
   </si>
   <si>
-    <t>179 грн</t>
-  </si>
-  <si>
     <t>450 грн</t>
   </si>
   <si>
@@ -93,9 +81,6 @@
     <t>95 грн</t>
   </si>
   <si>
-    <t>169 грн</t>
-  </si>
-  <si>
     <t>400 грн</t>
   </si>
   <si>
@@ -114,30 +99,12 @@
     <t>Размер 70х100 мм</t>
   </si>
   <si>
-    <t>92 грн</t>
-  </si>
-  <si>
-    <t>230 грн</t>
-  </si>
-  <si>
-    <t>488 грн</t>
-  </si>
-  <si>
-    <t>112 грн</t>
-  </si>
-  <si>
-    <t>206 грн</t>
-  </si>
-  <si>
     <t>404 грн</t>
   </si>
   <si>
     <t>142 грн</t>
   </si>
   <si>
-    <t>272 грн</t>
-  </si>
-  <si>
     <t>708 грн</t>
   </si>
   <si>
@@ -150,9 +117,6 @@
     <t>131 грн</t>
   </si>
   <si>
-    <t>243 грн</t>
-  </si>
-  <si>
     <t>609 грн</t>
   </si>
   <si>
@@ -183,9 +147,6 @@
     <t>Глянец с лицевой стороны</t>
   </si>
   <si>
-    <t>205 грн</t>
-  </si>
-  <si>
     <t>370 грн</t>
   </si>
   <si>
@@ -210,15 +171,9 @@
     <t>199 грн</t>
   </si>
   <si>
-    <t>311 грн</t>
-  </si>
-  <si>
     <t>558 грн</t>
   </si>
   <si>
-    <t>1020 грн</t>
-  </si>
-  <si>
     <t>Полноцвет с 2 сторон</t>
   </si>
   <si>
@@ -240,15 +195,9 @@
     <t>262 грн</t>
   </si>
   <si>
-    <t>448 грн</t>
-  </si>
-  <si>
     <t>810 грн</t>
   </si>
   <si>
-    <t>1381 грн</t>
-  </si>
-  <si>
     <t>283 грн</t>
   </si>
   <si>
@@ -312,24 +261,12 @@
     <t>684 грн</t>
   </si>
   <si>
-    <t>1244 грн</t>
-  </si>
-  <si>
-    <t>2408 грн</t>
-  </si>
-  <si>
     <t>477 грн</t>
   </si>
   <si>
     <t>900 грн</t>
   </si>
   <si>
-    <t>2137 грн</t>
-  </si>
-  <si>
-    <t>4002 грн</t>
-  </si>
-  <si>
     <t>Евро</t>
   </si>
   <si>
@@ -354,15 +291,9 @@
     <t>460 грн</t>
   </si>
   <si>
-    <t>185 грн</t>
-  </si>
-  <si>
     <t>328 грн</t>
   </si>
   <si>
-    <t>695 грн</t>
-  </si>
-  <si>
     <t>263 грн</t>
   </si>
   <si>
@@ -420,9 +351,6 @@
     <t>5150 грн</t>
   </si>
   <si>
-    <t>594 грн</t>
-  </si>
-  <si>
     <t>886 грн</t>
   </si>
   <si>
@@ -441,15 +369,9 @@
     <t>584 грн</t>
   </si>
   <si>
-    <t>1012 грн</t>
-  </si>
-  <si>
     <t>1555 грн</t>
   </si>
   <si>
-    <t>3100 грн</t>
-  </si>
-  <si>
     <t>622 грн</t>
   </si>
   <si>
@@ -516,18 +438,9 @@
     <t>1679 грн</t>
   </si>
   <si>
-    <t>2258 грн</t>
-  </si>
-  <si>
     <t>928 грн</t>
   </si>
   <si>
-    <t>1184 грн</t>
-  </si>
-  <si>
-    <t>1760 грн</t>
-  </si>
-  <si>
     <t>3401 грн</t>
   </si>
   <si>
@@ -594,9 +507,6 @@
     <t>2231 грн</t>
   </si>
   <si>
-    <t>4180 грн</t>
-  </si>
-  <si>
     <t>1264 грн</t>
   </si>
   <si>
@@ -627,9 +537,6 @@
     <t>5294 грн</t>
   </si>
   <si>
-    <t>11010 грн</t>
-  </si>
-  <si>
     <t>1988 грн</t>
   </si>
   <si>
@@ -714,9 +621,6 @@
     <t>2134 грн</t>
   </si>
   <si>
-    <t>3104 грн</t>
-  </si>
-  <si>
     <t>4753 грн</t>
   </si>
   <si>
@@ -732,9 +636,6 @@
     <t>2829 грн</t>
   </si>
   <si>
-    <t>4462 грн</t>
-  </si>
-  <si>
     <t>2037 грн</t>
   </si>
   <si>
@@ -747,9 +648,6 @@
     <t>1170 грн</t>
   </si>
   <si>
-    <t>3061 грн</t>
-  </si>
-  <si>
     <t>5447 грн</t>
   </si>
   <si>
@@ -762,12 +660,6 @@
     <t>5723 грн</t>
   </si>
   <si>
-    <t>1130 грн</t>
-  </si>
-  <si>
-    <t>1215 грн</t>
-  </si>
-  <si>
     <t>1772 грн</t>
   </si>
   <si>
@@ -799,18 +691,320 @@
   </si>
   <si>
     <t>642 грн</t>
+  </si>
+  <si>
+    <t>195 грн</t>
+  </si>
+  <si>
+    <t>391 грн</t>
+  </si>
+  <si>
+    <t>160 грн</t>
+  </si>
+  <si>
+    <t>323 грн</t>
+  </si>
+  <si>
+    <t>537 грн</t>
+  </si>
+  <si>
+    <t>178 грн</t>
+  </si>
+  <si>
+    <t>145 грн</t>
+  </si>
+  <si>
+    <t>240 грн</t>
+  </si>
+  <si>
+    <t>420 грн</t>
+  </si>
+  <si>
+    <t>181 грн</t>
+  </si>
+  <si>
+    <t>303 грн</t>
+  </si>
+  <si>
+    <t>102 грн</t>
+  </si>
+  <si>
+    <t>294 грн</t>
+  </si>
+  <si>
+    <t>132 грн</t>
+  </si>
+  <si>
+    <t>292 грн</t>
+  </si>
+  <si>
+    <t>245 грн</t>
+  </si>
+  <si>
+    <t>341 грн</t>
+  </si>
+  <si>
+    <t>468 грн</t>
+  </si>
+  <si>
+    <t>1394 грн</t>
+  </si>
+  <si>
+    <t>724 грн</t>
+  </si>
+  <si>
+    <t>2498 грн</t>
+  </si>
+  <si>
+    <t>447 грн</t>
+  </si>
+  <si>
+    <t>1607 грн</t>
+  </si>
+  <si>
+    <t>2822 грн</t>
+  </si>
+  <si>
+    <t>984 грн</t>
+  </si>
+  <si>
+    <t>4120 грн</t>
+  </si>
+  <si>
+    <t>3200 грн</t>
+  </si>
+  <si>
+    <t>624 грн</t>
+  </si>
+  <si>
+    <t>1484 грн</t>
+  </si>
+  <si>
+    <t>857 грн</t>
+  </si>
+  <si>
+    <t>1355 грн</t>
+  </si>
+  <si>
+    <t>2600 грн</t>
+  </si>
+  <si>
+    <t>1384 грн</t>
+  </si>
+  <si>
+    <t>1860 грн</t>
+  </si>
+  <si>
+    <t>3258 грн</t>
+  </si>
+  <si>
+    <t>2631 грн</t>
+  </si>
+  <si>
+    <t>4580 грн</t>
+  </si>
+  <si>
+    <t>10110 грн</t>
+  </si>
+  <si>
+    <t>4852 грн</t>
+  </si>
+  <si>
+    <t>1267 грн</t>
+  </si>
+  <si>
+    <t>1855 грн</t>
+  </si>
+  <si>
+    <t>3261 грн</t>
+  </si>
+  <si>
+    <t>1230 грн</t>
+  </si>
+  <si>
+    <t>1315 грн</t>
+  </si>
+  <si>
+    <t>1120 грн</t>
+  </si>
+  <si>
+    <t>Папка</t>
+  </si>
+  <si>
+    <t>Штамп 1</t>
+  </si>
+  <si>
+    <t>Штамп 2</t>
+  </si>
+  <si>
+    <t>Штамп 3</t>
+  </si>
+  <si>
+    <t>Без постобработки</t>
+  </si>
+  <si>
+    <t>УФ-лакировка</t>
+  </si>
+  <si>
+    <t>Выборочная УФ-лакировка</t>
+  </si>
+  <si>
+    <t>Глянцевая ламинация</t>
+  </si>
+  <si>
+    <t>Матовая ламинация</t>
+  </si>
+  <si>
+    <t>Матовая ламинация + выборочная УФ-лакировка</t>
+  </si>
+  <si>
+    <t>Папка печать полноцвет с одной стороны</t>
+  </si>
+  <si>
+    <t>Папка печать полноцвет с обеих сторон</t>
+  </si>
+  <si>
+    <t>2625 грн</t>
+  </si>
+  <si>
+    <t>4468 грн</t>
+  </si>
+  <si>
+    <t>1749 грн</t>
+  </si>
+  <si>
+    <t>2195 грн</t>
+  </si>
+  <si>
+    <t>2970 грн</t>
+  </si>
+  <si>
+    <t>5247 грн</t>
+  </si>
+  <si>
+    <t>1887 грн</t>
+  </si>
+  <si>
+    <t>2304 грн</t>
+  </si>
+  <si>
+    <t>3080 грн</t>
+  </si>
+  <si>
+    <t>5296 грн</t>
+  </si>
+  <si>
+    <t>1849 грн</t>
+  </si>
+  <si>
+    <t>2334 грн</t>
+  </si>
+  <si>
+    <t>3207 грн</t>
+  </si>
+  <si>
+    <t>5442 грн</t>
+  </si>
+  <si>
+    <t>2392 грн</t>
+  </si>
+  <si>
+    <t>3306 грн</t>
+  </si>
+  <si>
+    <t>5796 грн</t>
+  </si>
+  <si>
+    <t>2140 грн</t>
+  </si>
+  <si>
+    <t>2683 грн</t>
+  </si>
+  <si>
+    <t>3691 грн</t>
+  </si>
+  <si>
+    <t>6600 грн</t>
+  </si>
+  <si>
+    <t>2351 грн</t>
+  </si>
+  <si>
+    <t>2789 грн</t>
+  </si>
+  <si>
+    <t>3361 грн</t>
+  </si>
+  <si>
+    <t>5240 грн</t>
+  </si>
+  <si>
+    <t>2575 грн</t>
+  </si>
+  <si>
+    <t>3000 грн</t>
+  </si>
+  <si>
+    <t>3720 грн</t>
+  </si>
+  <si>
+    <t>5910 грн</t>
+  </si>
+  <si>
+    <t>2623 грн</t>
+  </si>
+  <si>
+    <t>3797 грн</t>
+  </si>
+  <si>
+    <t>6008 грн</t>
+  </si>
+  <si>
+    <t>3110 грн</t>
+  </si>
+  <si>
+    <t>3903 грн</t>
+  </si>
+  <si>
+    <t>6408 грн</t>
+  </si>
+  <si>
+    <t>3218 грн</t>
+  </si>
+  <si>
+    <t>6602 грн</t>
+  </si>
+  <si>
+    <t>2906 грн</t>
+  </si>
+  <si>
+    <t>3409 грн</t>
+  </si>
+  <si>
+    <t>4475 грн</t>
+  </si>
+  <si>
+    <t>7378 грн</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -830,6 +1024,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -845,7 +1047,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1023,11 +1225,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1038,24 +1292,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1066,12 +1320,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1085,6 +1333,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1962,6 +2249,182 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>125033</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Рисунок 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8350250" y="158750"/>
+          <a:ext cx="1428750" cy="1299783"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>46520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="26892250"/>
+          <a:ext cx="3162300" cy="2396020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>59793</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3371850" y="26777950"/>
+          <a:ext cx="3219450" cy="2409293"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>152845</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6743701" y="26777951"/>
+          <a:ext cx="3219449" cy="2502344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2252,44 +2715,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L137"/>
+  <dimension ref="A1:N167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I140" sqref="I140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="12.42578125" customWidth="1"/>
+    <col min="1" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="13" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="30" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D1" s="31"/>
       <c r="E1" s="30" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F1" s="31"/>
       <c r="G1" s="30" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="30" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J1" s="31"/>
       <c r="K1" s="30" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="L1" s="31"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="31"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
@@ -2302,8 +2772,10 @@
       <c r="J2" s="2"/>
       <c r="K2" s="1"/>
       <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="1"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="3"/>
@@ -2316,8 +2788,10 @@
       <c r="J3" s="4"/>
       <c r="K3" s="3"/>
       <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="3"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="3"/>
@@ -2330,8 +2804,10 @@
       <c r="J4" s="4"/>
       <c r="K4" s="3"/>
       <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="3"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3"/>
@@ -2344,8 +2820,10 @@
       <c r="J5" s="4"/>
       <c r="K5" s="3"/>
       <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="3"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3"/>
@@ -2358,8 +2836,10 @@
       <c r="J6" s="4"/>
       <c r="K6" s="3"/>
       <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="3"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3"/>
@@ -2372,8 +2852,10 @@
       <c r="J7" s="4"/>
       <c r="K7" s="3"/>
       <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="3"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
@@ -2386,34 +2868,40 @@
       <c r="J8" s="4"/>
       <c r="K8" s="3"/>
       <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+      <c r="M8" s="3"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="L9" s="35"/>
-    </row>
-    <row r="10" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="33"/>
+      <c r="C9" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="33"/>
+      <c r="I9" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="33"/>
+      <c r="K9" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="33"/>
+      <c r="M9" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" s="33"/>
+    </row>
+    <row r="10" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
@@ -2427,7 +2915,7 @@
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="10" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="10" t="s">
@@ -2435,11 +2923,15 @@
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="10" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
@@ -2464,60 +2956,72 @@
         <v>3</v>
       </c>
       <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L12" s="14"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="14"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="H13" s="29"/>
       <c r="I13" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="J13" s="29"/>
       <c r="K13" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="L13" s="29"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="29"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -2534,28 +3038,34 @@
         <v>4</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -2566,51 +3076,57 @@
         <v>6</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>7</v>
+        <v>230</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>9</v>
+        <v>231</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>32</v>
+        <v>236</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="4"/>
@@ -2618,72 +3134,88 @@
         <v>8</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>11</v>
+        <v>225</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>232</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="6"/>
       <c r="I17" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="10" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="10" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="L18" s="11"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>3</v>
       </c>
@@ -2708,248 +3240,288 @@
         <v>3</v>
       </c>
       <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L20" s="14"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="7" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="7" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="7" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" s="29"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>34</v>
+        <v>237</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>15</v>
+        <v>226</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>54</v>
+        <v>239</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>73</v>
+        <v>241</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>6</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>12</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="10" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="10" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L26" s="11"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N26" s="11"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="7" t="s">
@@ -2957,241 +3529,273 @@
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="L27" s="8"/>
-    </row>
-    <row r="28" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="8"/>
+    </row>
+    <row r="28" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J28" s="14"/>
       <c r="K28" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L28" s="14"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N28" s="14"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D29" s="29"/>
       <c r="E29" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="H29" s="29"/>
       <c r="I29" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="J29" s="29"/>
       <c r="K29" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="L29" s="29"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="N29" s="29"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>38</v>
+        <v>238</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>6</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="6"/>
       <c r="K33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>12</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="10" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J34" s="11"/>
-      <c r="K34" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L34" s="11"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>3</v>
       </c>
@@ -3212,330 +3816,254 @@
         <v>3</v>
       </c>
       <c r="J35" s="8"/>
-      <c r="K35" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="8"/>
-    </row>
-    <row r="36" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F36" s="14"/>
       <c r="G36" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J36" s="14"/>
-      <c r="K36" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L36" s="14"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D37" s="29"/>
       <c r="E37" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="H37" s="29"/>
       <c r="I37" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="J37" s="29"/>
-      <c r="K37" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="L37" s="29"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>63</v>
+        <v>240</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>65</v>
+        <v>268</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="6"/>
-      <c r="K41" s="5" t="s">
+    </row>
+    <row r="42" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L41" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="B42" s="11"/>
-      <c r="K42" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L42" s="11"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="8"/>
-      <c r="K43" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="8"/>
-    </row>
-    <row r="44" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="B44" s="14"/>
-      <c r="K44" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L44" s="14"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B45" s="29"/>
-      <c r="K45" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="L45" s="29"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>101</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>102</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B50" s="31"/>
       <c r="C50" s="30" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="D50" s="31"/>
       <c r="E50" s="30" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="F50" s="31"/>
       <c r="G50" s="30" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="H50" s="31"/>
       <c r="I50" s="30" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="J50" s="31"/>
       <c r="K50" s="30" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="L50" s="31"/>
     </row>
@@ -3638,34 +4166,34 @@
       <c r="L57" s="4"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="B58" s="35"/>
-      <c r="C58" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D58" s="35"/>
-      <c r="E58" s="34" t="s">
+      <c r="A58" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="33"/>
+      <c r="C58" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" s="33"/>
+      <c r="E58" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F58" s="33"/>
+      <c r="G58" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="H58" s="33"/>
+      <c r="I58" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="F58" s="35"/>
-      <c r="G58" s="34" t="s">
+      <c r="J58" s="33"/>
+      <c r="K58" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="H58" s="35"/>
-      <c r="I58" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="J58" s="35"/>
-      <c r="K58" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="L58" s="35"/>
+      <c r="L58" s="33"/>
     </row>
     <row r="59" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="10" t="s">
@@ -3673,19 +4201,19 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="10" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F59" s="11"/>
       <c r="G59" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H59" s="11"/>
       <c r="I59" s="10" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J59" s="11"/>
       <c r="K59" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L59" s="11"/>
     </row>
@@ -3717,225 +4245,225 @@
     </row>
     <row r="61" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B61" s="14"/>
       <c r="C61" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D61" s="14"/>
       <c r="E61" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F61" s="14"/>
       <c r="G61" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H61" s="14"/>
       <c r="I61" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J61" s="14"/>
       <c r="K61" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L61" s="14"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B62" s="29"/>
       <c r="C62" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D62" s="29"/>
       <c r="E62" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F62" s="29"/>
       <c r="G62" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="H62" s="29"/>
       <c r="I62" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="J62" s="29"/>
       <c r="K62" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="L62" s="29"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>6</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="6"/>
       <c r="C66" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="6"/>
       <c r="G66" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="I66" s="5"/>
       <c r="J66" s="6"/>
       <c r="K66" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="10" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F67" s="11"/>
       <c r="G67" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H67" s="11"/>
       <c r="I67" s="10" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J67" s="11"/>
       <c r="K67" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L67" s="11"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="7" t="s">
@@ -3943,11 +4471,11 @@
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F68" s="8"/>
       <c r="G68" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="7" t="s">
@@ -3955,59 +4483,59 @@
       </c>
       <c r="J68" s="8"/>
       <c r="K68" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L68" s="8"/>
     </row>
     <row r="69" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B69" s="14"/>
       <c r="C69" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D69" s="14"/>
       <c r="E69" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F69" s="14"/>
       <c r="G69" s="13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H69" s="14"/>
       <c r="I69" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J69" s="14"/>
       <c r="K69" s="13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="L69" s="14"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D70" s="29"/>
       <c r="E70" s="7" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="H70" s="29"/>
       <c r="I70" s="7" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="J70" s="9"/>
       <c r="K70" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="L70" s="29"/>
     </row>
@@ -4016,37 +4544,37 @@
         <v>4</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -4054,37 +4582,37 @@
         <v>6</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>133</v>
+        <v>251</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -4092,100 +4620,100 @@
         <v>8</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="I73" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>116</v>
+        <v>252</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="K74" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B75" s="11"/>
       <c r="C75" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="10" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F75" s="11"/>
       <c r="G75" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H75" s="11"/>
       <c r="I75" s="10" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="J75" s="11"/>
       <c r="K75" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L75" s="11"/>
     </row>
@@ -4195,7 +4723,7 @@
       </c>
       <c r="B76" s="8"/>
       <c r="C76" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="7" t="s">
@@ -4217,53 +4745,53 @@
     </row>
     <row r="77" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B77" s="14"/>
       <c r="C77" s="13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D77" s="14"/>
       <c r="E77" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F77" s="14"/>
       <c r="G77" s="13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H77" s="14"/>
       <c r="I77" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J77" s="14"/>
       <c r="K77" s="13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="L77" s="14"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B78" s="29"/>
       <c r="C78" s="7" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F78" s="29"/>
       <c r="G78" s="15" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="H78" s="9"/>
       <c r="I78" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="J78" s="29"/>
       <c r="K78" s="15" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="L78" s="9"/>
     </row>
@@ -4272,37 +4800,37 @@
         <v>4</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -4310,37 +4838,37 @@
         <v>6</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -4348,80 +4876,76 @@
         <v>8</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="6"/>
       <c r="E82" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>165</v>
+        <v>258</v>
       </c>
       <c r="K82" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B83" s="11"/>
       <c r="C83" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="10" t="s">
@@ -4434,10 +4958,6 @@
       <c r="J83" s="11"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B84" s="8"/>
       <c r="C84" s="7" t="s">
         <v>3</v>
       </c>
@@ -4452,164 +4972,136 @@
       <c r="J84" s="8"/>
     </row>
     <row r="85" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85" s="14"/>
       <c r="C85" s="13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D85" s="14"/>
       <c r="E85" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F85" s="14"/>
       <c r="I85" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J85" s="14"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B86" s="29"/>
       <c r="C86" s="7" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F86" s="29"/>
       <c r="I86" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="J86" s="29"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="C87" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="C88" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>140</v>
+        <v>253</v>
       </c>
       <c r="I88" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>167</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="C89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>141</v>
+        <v>254</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>168</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C90" s="5"/>
-      <c r="D90" s="6"/>
+      <c r="C90" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>250</v>
+      </c>
       <c r="E90" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="30" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="B91" s="31"/>
       <c r="C91" s="30" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="D91" s="31"/>
       <c r="E91" s="30" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="F91" s="31"/>
-      <c r="G91" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="H91" s="37"/>
+      <c r="G91" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="H91" s="35"/>
       <c r="I91" s="30" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="J91" s="31"/>
       <c r="K91" s="30" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="L91" s="31"/>
     </row>
@@ -4698,34 +5190,34 @@
       <c r="L98" s="4"/>
     </row>
     <row r="99" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="B99" s="35"/>
-      <c r="C99" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="D99" s="35"/>
-      <c r="E99" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="F99" s="35"/>
-      <c r="G99" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="H99" s="35"/>
-      <c r="I99" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="J99" s="35"/>
-      <c r="K99" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="L99" s="33"/>
+      <c r="A99" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B99" s="33"/>
+      <c r="C99" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D99" s="33"/>
+      <c r="E99" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F99" s="33"/>
+      <c r="G99" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="H99" s="33"/>
+      <c r="I99" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="J99" s="33"/>
+      <c r="K99" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="L99" s="37"/>
     </row>
     <row r="100" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B100" s="11"/>
       <c r="C100" s="10" t="s">
@@ -4733,19 +5225,19 @@
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="10" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="F100" s="16"/>
       <c r="G100" s="10" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H100" s="16"/>
       <c r="I100" s="10" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="J100" s="11"/>
       <c r="K100" s="10" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="L100" s="11"/>
     </row>
@@ -4759,7 +5251,7 @@
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="7" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F101" s="17"/>
       <c r="G101" s="7" t="s">
@@ -4777,202 +5269,202 @@
     </row>
     <row r="102" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B102" s="14"/>
       <c r="C102" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F102" s="18"/>
       <c r="G102" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H102" s="18"/>
       <c r="I102" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J102" s="14"/>
       <c r="K102" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L102" s="14"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B103" s="29"/>
       <c r="C103" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D103" s="29"/>
       <c r="E103" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="F103" s="36"/>
+        <v>177</v>
+      </c>
+      <c r="F103" s="34"/>
       <c r="G103" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="H103" s="36"/>
+        <v>181</v>
+      </c>
+      <c r="H103" s="34"/>
       <c r="I103" s="28" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="J103" s="29"/>
       <c r="K103" s="28" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="L103" s="29"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="I104" s="19" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="I105" s="19" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="I106" s="19" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>130</v>
+        <v>263</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>6</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
       <c r="C107" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="I107" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>186</v>
+        <v>264</v>
       </c>
       <c r="K107" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
     </row>
     <row r="108" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4984,15 +5476,15 @@
         <v>6</v>
       </c>
       <c r="F108" s="21" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="G108" s="25"/>
       <c r="H108" s="21"/>
       <c r="I108" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J108" s="26" t="s">
-        <v>242</v>
+      <c r="J108" s="38" t="s">
+        <v>265</v>
       </c>
       <c r="K108" s="25"/>
       <c r="L108" s="21"/>
@@ -5006,7 +5498,7 @@
         <v>8</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="G109" s="23"/>
       <c r="H109" s="6"/>
@@ -5014,36 +5506,36 @@
         <v>8</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="K109" s="23"/>
       <c r="L109" s="6"/>
     </row>
     <row r="110" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B110" s="11"/>
       <c r="C110" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="10" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="F110" s="16"/>
       <c r="G110" s="10" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="H110" s="16"/>
       <c r="I110" s="10" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="J110" s="11"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B111" s="8"/>
       <c r="C111" s="7" t="s">
@@ -5065,45 +5557,45 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B112" s="14"/>
       <c r="C112" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D112" s="14"/>
       <c r="E112" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F112" s="18"/>
       <c r="G112" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H112" s="18"/>
       <c r="I112" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J112" s="14"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D113" s="29"/>
       <c r="E113" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="F113" s="36"/>
+        <v>181</v>
+      </c>
+      <c r="F113" s="34"/>
       <c r="G113" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="H113" s="36"/>
+        <v>177</v>
+      </c>
+      <c r="H113" s="34"/>
       <c r="I113" s="28" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="J113" s="29"/>
     </row>
@@ -5112,31 +5604,31 @@
         <v>4</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J114" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -5144,31 +5636,31 @@
         <v>6</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="I115" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
     </row>
     <row r="116" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5176,63 +5668,63 @@
         <v>8</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="I117" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
     </row>
     <row r="118" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5242,11 +5734,11 @@
       <c r="D118" s="21"/>
       <c r="E118" s="25"/>
       <c r="F118" s="21"/>
-      <c r="G118" s="25" t="s">
+      <c r="G118" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H118" s="21" t="s">
-        <v>236</v>
+      <c r="H118" s="38" t="s">
+        <v>204</v>
       </c>
       <c r="I118" s="25"/>
       <c r="J118" s="21"/>
@@ -5262,30 +5754,30 @@
         <v>8</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="I119" s="23"/>
       <c r="J119" s="6"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B120" s="11"/>
       <c r="C120" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="10" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F120" s="11"/>
       <c r="G120" s="16" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="H120" s="16"/>
       <c r="I120" s="10" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="J120" s="11"/>
     </row>
@@ -5313,45 +5805,45 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B122" s="14"/>
       <c r="C122" s="13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D122" s="18"/>
       <c r="E122" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F122" s="14"/>
       <c r="G122" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H122" s="18"/>
       <c r="I122" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J122" s="14"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="28" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B123" s="29"/>
       <c r="C123" s="7" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D123" s="22"/>
       <c r="E123" s="28" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="F123" s="29"/>
-      <c r="G123" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="H123" s="36"/>
+      <c r="G123" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="H123" s="34"/>
       <c r="I123" s="28" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="J123" s="29"/>
     </row>
@@ -5360,31 +5852,31 @@
         <v>4</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="E124" s="19" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="I124" s="19" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -5392,31 +5884,31 @@
         <v>6</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="E125" s="19" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="I125" s="19" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
     </row>
     <row r="126" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5424,55 +5916,55 @@
         <v>8</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>190</v>
+        <v>259</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="4"/>
       <c r="E126" s="19" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="I126" s="19" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>191</v>
+        <v>260</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="4"/>
       <c r="E127" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="I127" s="19" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -5484,7 +5976,7 @@
         <v>6</v>
       </c>
       <c r="F128" s="26" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="G128" s="25"/>
       <c r="H128" s="21"/>
@@ -5492,10 +5984,10 @@
         <v>6</v>
       </c>
       <c r="J128" s="26" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="6"/>
       <c r="C129" s="23"/>
@@ -5504,7 +5996,7 @@
         <v>8</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="G129" s="23"/>
       <c r="H129" s="6"/>
@@ -5512,129 +6004,747 @@
         <v>8</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B130" s="11"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B131" s="8"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B132" s="14"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B133" s="29"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B136" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="B138" s="48"/>
+      <c r="C138" s="48"/>
+      <c r="D138" s="48"/>
+      <c r="E138" s="48"/>
+      <c r="F138" s="48"/>
+      <c r="G138" s="48"/>
+      <c r="H138" s="48"/>
+      <c r="I138" s="48"/>
+      <c r="J138" s="48"/>
+      <c r="K138" s="48"/>
+      <c r="L138" s="48"/>
+    </row>
+    <row r="139" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="B139" s="44"/>
+      <c r="C139" s="44"/>
+      <c r="D139" s="45"/>
+      <c r="E139" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="F139" s="44"/>
+      <c r="G139" s="44"/>
+      <c r="H139" s="45"/>
+      <c r="I139" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="J139" s="44"/>
+      <c r="K139" s="44"/>
+      <c r="L139" s="45"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="40"/>
+      <c r="B140" s="41"/>
+      <c r="C140" s="41"/>
+      <c r="D140" s="42"/>
+      <c r="E140" s="40"/>
+      <c r="F140" s="41"/>
+      <c r="G140" s="41"/>
+      <c r="H140" s="42"/>
+      <c r="I140" s="40"/>
+      <c r="J140" s="41"/>
+      <c r="K140" s="41"/>
+      <c r="L140" s="42"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="3"/>
+      <c r="B141" s="39"/>
+      <c r="C141" s="39"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="39"/>
+      <c r="G141" s="39"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="39"/>
+      <c r="K141" s="39"/>
+      <c r="L141" s="4"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="3"/>
+      <c r="B142" s="39"/>
+      <c r="C142" s="39"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="39"/>
+      <c r="G142" s="39"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="39"/>
+      <c r="K142" s="39"/>
+      <c r="L142" s="4"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="3"/>
+      <c r="B143" s="39"/>
+      <c r="C143" s="39"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="39"/>
+      <c r="G143" s="39"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="39"/>
+      <c r="K143" s="39"/>
+      <c r="L143" s="4"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="3"/>
+      <c r="B144" s="39"/>
+      <c r="C144" s="39"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="39"/>
+      <c r="G144" s="39"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="3"/>
+      <c r="J144" s="39"/>
+      <c r="K144" s="39"/>
+      <c r="L144" s="4"/>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145" s="3"/>
+      <c r="B145" s="39"/>
+      <c r="C145" s="39"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="39"/>
+      <c r="G145" s="39"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="3"/>
+      <c r="J145" s="39"/>
+      <c r="K145" s="39"/>
+      <c r="L145" s="4"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146" s="3"/>
+      <c r="B146" s="39"/>
+      <c r="C146" s="39"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="39"/>
+      <c r="G146" s="39"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="3"/>
+      <c r="J146" s="39"/>
+      <c r="K146" s="39"/>
+      <c r="L146" s="4"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147" s="3"/>
+      <c r="B147" s="39"/>
+      <c r="C147" s="39"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="39"/>
+      <c r="G147" s="39"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="3"/>
+      <c r="J147" s="39"/>
+      <c r="K147" s="39"/>
+      <c r="L147" s="4"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148" s="3"/>
+      <c r="B148" s="39"/>
+      <c r="C148" s="39"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="39"/>
+      <c r="G148" s="39"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="39"/>
+      <c r="K148" s="39"/>
+      <c r="L148" s="4"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149" s="50"/>
+      <c r="B149" s="46"/>
+      <c r="C149" s="46"/>
+      <c r="D149" s="47"/>
+      <c r="E149" s="39"/>
+      <c r="F149" s="39"/>
+      <c r="G149" s="39"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="39"/>
+      <c r="K149" s="39"/>
+      <c r="L149" s="4"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150" s="3"/>
+      <c r="B150" s="39"/>
+      <c r="C150" s="39"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="39"/>
+      <c r="G150" s="39"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="39"/>
+      <c r="K150" s="39"/>
+      <c r="L150" s="4"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151" s="3"/>
+      <c r="B151" s="39"/>
+      <c r="C151" s="39"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="39"/>
+      <c r="G151" s="39"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="39"/>
+      <c r="K151" s="39"/>
+      <c r="L151" s="4"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152" s="3"/>
+      <c r="B152" s="39"/>
+      <c r="C152" s="39"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="39"/>
+      <c r="G152" s="39"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="3"/>
+      <c r="J152" s="39"/>
+      <c r="K152" s="39"/>
+      <c r="L152" s="4"/>
+    </row>
+    <row r="153" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="5"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="23"/>
+      <c r="D153" s="23"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="23"/>
+      <c r="G153" s="23"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="23"/>
+      <c r="J153" s="23"/>
+      <c r="K153" s="23"/>
+      <c r="L153" s="23"/>
+      <c r="M153" s="3"/>
+    </row>
+    <row r="154" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="39"/>
+      <c r="B154" s="39"/>
+      <c r="C154" s="39"/>
+      <c r="D154" s="39"/>
+      <c r="E154" s="39"/>
+      <c r="F154" s="39"/>
+      <c r="G154" s="39"/>
+      <c r="H154" s="39"/>
+      <c r="I154" s="39"/>
+      <c r="J154" s="39"/>
+      <c r="K154" s="39"/>
+      <c r="L154" s="39"/>
+      <c r="M154" s="39"/>
+    </row>
+    <row r="155" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="B155" s="44"/>
+      <c r="C155" s="44"/>
+      <c r="D155" s="44"/>
+      <c r="E155" s="44"/>
+      <c r="F155" s="44"/>
+      <c r="G155" s="44"/>
+      <c r="H155" s="44"/>
+      <c r="I155" s="44"/>
+      <c r="J155" s="44"/>
+      <c r="K155" s="44"/>
+      <c r="L155" s="45"/>
+    </row>
+    <row r="156" spans="1:13" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="B156" s="51"/>
+      <c r="C156" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="D156" s="51"/>
+      <c r="E156" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="F156" s="51"/>
+      <c r="G156" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="H156" s="51"/>
+      <c r="I156" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="J156" s="51"/>
+      <c r="K156" s="52" t="s">
+        <v>278</v>
+      </c>
+      <c r="L156" s="52"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="B157" s="42" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>194</v>
+      <c r="C157" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="D157" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="E157" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="F157" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="G157" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="H157" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="I157" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="J157" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="K157" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="L157" s="42" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C158" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E158" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G158" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="I158" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="J158" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="K158" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="L158" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C159" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E159" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G159" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="I159" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="J159" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="K159" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="L159" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C160" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E160" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="G160" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H160" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I160" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J160" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="K160" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="L160" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="23"/>
+      <c r="D161" s="23"/>
+      <c r="F161" s="23"/>
+      <c r="H161" s="23"/>
+      <c r="J161" s="23"/>
+      <c r="L161" s="6"/>
+    </row>
+    <row r="162" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="B162" s="44"/>
+      <c r="C162" s="44"/>
+      <c r="D162" s="44"/>
+      <c r="E162" s="44"/>
+      <c r="F162" s="44"/>
+      <c r="G162" s="44"/>
+      <c r="H162" s="44"/>
+      <c r="I162" s="44"/>
+      <c r="J162" s="44"/>
+      <c r="K162" s="44"/>
+      <c r="L162" s="45"/>
+    </row>
+    <row r="163" spans="1:12" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="B163" s="51"/>
+      <c r="C163" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="D163" s="51"/>
+      <c r="E163" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="F163" s="51"/>
+      <c r="G163" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="H163" s="51"/>
+      <c r="I163" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="J163" s="51"/>
+      <c r="K163" s="52" t="s">
+        <v>278</v>
+      </c>
+      <c r="L163" s="52"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="B164" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="C164" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="D164" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="E164" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="F164" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="G164" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="H164" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="I164" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="J164" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="K164" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="L164" s="42" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C165" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E165" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G165" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="I165" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="J165" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="K165" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="L165" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C166" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E166" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G166" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="H166" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="I166" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="J166" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K166" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="L166" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C167" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E167" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="G167" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H167" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="I167" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J167" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="K167" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="L167" s="6" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="89">
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C9:D9"/>
+  <mergeCells count="111">
+    <mergeCell ref="A162:L162"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="I163:J163"/>
+    <mergeCell ref="K163:L163"/>
+    <mergeCell ref="K156:L156"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="E139:H139"/>
+    <mergeCell ref="I139:L139"/>
+    <mergeCell ref="A155:L155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="I156:J156"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="A138:L138"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G123:H123"/>
     <mergeCell ref="C113:D113"/>
     <mergeCell ref="A123:B123"/>
     <mergeCell ref="A133:B133"/>
@@ -5649,25 +6759,74 @@
     <mergeCell ref="C99:D99"/>
     <mergeCell ref="A103:B103"/>
     <mergeCell ref="C103:D103"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="I123:J123"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="K103:L103"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C62:D62"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="78" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <rowBreaks count="2" manualBreakCount="2">
-    <brk id="49" max="11" man="1"/>
-    <brk id="90" max="11" man="1"/>
+  <rowBreaks count="3" manualBreakCount="3">
+    <brk id="49" max="13" man="1"/>
+    <brk id="90" max="13" man="1"/>
+    <brk id="137" max="13" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/Прайс на полиграфию/Прайс на полиграфию.xlsx
+++ b/Прайс на полиграфию/Прайс на полиграфию.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$N$167</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$N$185</definedName>
   </definedNames>
-  <calcPr calcId="122211" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="360">
   <si>
     <t>Визитка</t>
   </si>
@@ -828,9 +828,6 @@
     <t>1120 грн</t>
   </si>
   <si>
-    <t>Папка</t>
-  </si>
-  <si>
     <t>Штамп 1</t>
   </si>
   <si>
@@ -858,12 +855,6 @@
     <t>Матовая ламинация + выборочная УФ-лакировка</t>
   </si>
   <si>
-    <t>Папка печать полноцвет с одной стороны</t>
-  </si>
-  <si>
-    <t>Папка печать полноцвет с обеих сторон</t>
-  </si>
-  <si>
     <t>2625 грн</t>
   </si>
   <si>
@@ -985,13 +976,136 @@
   </si>
   <si>
     <t>7378 грн</t>
+  </si>
+  <si>
+    <t>Срок изготовления - до 5 рабочих дней с момента предоставления правильного оригинал макета.</t>
+  </si>
+  <si>
+    <t>Хенгер</t>
+  </si>
+  <si>
+    <t>Тираж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мелованная глянцевая бумага 170 г/м2. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мелованная глянцевая бумага 250 г/м2. </t>
+  </si>
+  <si>
+    <t>печать 4+4</t>
+  </si>
+  <si>
+    <t>печать 4+0</t>
+  </si>
+  <si>
+    <t>Наклейка</t>
+  </si>
+  <si>
+    <t>Самоклеющаяся бумага Reflatak плотностью 163 г.м2. Печать 4+0.</t>
+  </si>
+  <si>
+    <t>50*90</t>
+  </si>
+  <si>
+    <t>70*100</t>
+  </si>
+  <si>
+    <t>90*210</t>
+  </si>
+  <si>
+    <t>148*210</t>
+  </si>
+  <si>
+    <t>198*210</t>
+  </si>
+  <si>
+    <t>7500 шт</t>
+  </si>
+  <si>
+    <t>15000 шт</t>
+  </si>
+  <si>
+    <t>488 грн</t>
+  </si>
+  <si>
+    <t>1986 грн</t>
+  </si>
+  <si>
+    <t>978 грн</t>
+  </si>
+  <si>
+    <t>1416 грн</t>
+  </si>
+  <si>
+    <t>1966 грн</t>
+  </si>
+  <si>
+    <t>2300 грн</t>
+  </si>
+  <si>
+    <t>3006 грн</t>
+  </si>
+  <si>
+    <t>58.80 грн</t>
+  </si>
+  <si>
+    <t>83.50 грн</t>
+  </si>
+  <si>
+    <t>127 грн</t>
+  </si>
+  <si>
+    <t>204 грн</t>
+  </si>
+  <si>
+    <t>38 грн</t>
+  </si>
+  <si>
+    <t>124 грн</t>
+  </si>
+  <si>
+    <t>185 грн</t>
+  </si>
+  <si>
+    <t>305 грн</t>
+  </si>
+  <si>
+    <t>409 грн</t>
+  </si>
+  <si>
+    <t>482 грн</t>
+  </si>
+  <si>
+    <t>282 грн</t>
+  </si>
+  <si>
+    <t>540 грн</t>
+  </si>
+  <si>
+    <t>885 грн</t>
+  </si>
+  <si>
+    <t>575 грн</t>
+  </si>
+  <si>
+    <t>798 грн</t>
+  </si>
+  <si>
+    <t>Папка цельновысечная под формат А4 с высечкой под визитную карточку. </t>
+  </si>
+  <si>
+    <t>Мелованная матовая бумага 350 г/м2. Печать 4+0.</t>
+  </si>
+  <si>
+    <t>Мелованная матовая бумага 350 г/м2. Печать 4+4.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1032,6 +1146,49 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1047,7 +1204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1277,11 +1434,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1310,6 +1504,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1328,23 +1573,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1354,23 +1594,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2296,15 +2538,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>139</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>46520</xdr:rowOff>
+      <xdr:colOff>198453</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>105823</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2327,8 +2569,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57150" y="26892250"/>
-          <a:ext cx="3162300" cy="2396020"/>
+          <a:off x="628650" y="26844625"/>
+          <a:ext cx="2046303" cy="1550448"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2340,15 +2582,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>596901</xdr:colOff>
       <xdr:row>139</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>63501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>59793</xdr:rowOff>
+      <xdr:colOff>197521</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>98538</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2371,8 +2613,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3371850" y="26777950"/>
-          <a:ext cx="3219450" cy="2409293"/>
+          <a:off x="3898901" y="26828751"/>
+          <a:ext cx="2077120" cy="1559037"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2384,15 +2626,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
+      <xdr:colOff>685801</xdr:colOff>
       <xdr:row>139</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
+      <xdr:rowOff>63501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>152845</xdr:rowOff>
+      <xdr:colOff>62089</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2415,8 +2657,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6743701" y="26777951"/>
-          <a:ext cx="3219449" cy="2502344"/>
+          <a:off x="7289801" y="26828751"/>
+          <a:ext cx="1995663" cy="1555749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>79376</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>108911</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Рисунок 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4826000" y="32464376"/>
+          <a:ext cx="2111375" cy="982035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2715,10 +3001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N167"/>
+  <dimension ref="A1:P185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I140" sqref="I140"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A133" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A165" sqref="A165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2730,34 +3016,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="30" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="30" t="s">
+      <c r="H1" s="56"/>
+      <c r="I1" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="30" t="s">
+      <c r="J1" s="56"/>
+      <c r="K1" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="30" t="s">
+      <c r="L1" s="56"/>
+      <c r="M1" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="31"/>
+      <c r="N1" s="56"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -2872,34 +3158,34 @@
       <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="32" t="s">
+      <c r="B9" s="58"/>
+      <c r="C9" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="32" t="s">
+      <c r="D9" s="58"/>
+      <c r="E9" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="32" t="s">
+      <c r="F9" s="58"/>
+      <c r="G9" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="32" t="s">
+      <c r="H9" s="58"/>
+      <c r="I9" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="32" t="s">
+      <c r="J9" s="58"/>
+      <c r="K9" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="L9" s="33"/>
-      <c r="M9" s="32" t="s">
+      <c r="L9" s="58"/>
+      <c r="M9" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="33"/>
+      <c r="N9" s="58"/>
     </row>
     <row r="10" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
@@ -2992,34 +3278,34 @@
       <c r="N12" s="14"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="28" t="s">
+      <c r="B13" s="54"/>
+      <c r="C13" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="28" t="s">
+      <c r="D13" s="54"/>
+      <c r="E13" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="28" t="s">
+      <c r="F13" s="54"/>
+      <c r="G13" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="28" t="s">
+      <c r="H13" s="54"/>
+      <c r="I13" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="28" t="s">
+      <c r="J13" s="54"/>
+      <c r="K13" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="L13" s="29"/>
-      <c r="M13" s="28" t="s">
+      <c r="L13" s="54"/>
+      <c r="M13" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="N13" s="29"/>
+      <c r="N13" s="54"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -3276,18 +3562,18 @@
       <c r="N20" s="14"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="28" t="s">
+      <c r="B21" s="54"/>
+      <c r="C21" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="28" t="s">
+      <c r="D21" s="54"/>
+      <c r="E21" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="29"/>
+      <c r="F21" s="54"/>
       <c r="G21" s="7" t="s">
         <v>52</v>
       </c>
@@ -3300,10 +3586,10 @@
         <v>51</v>
       </c>
       <c r="L21" s="9"/>
-      <c r="M21" s="28" t="s">
+      <c r="M21" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="N21" s="29"/>
+      <c r="N21" s="54"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -3572,34 +3858,34 @@
       <c r="N28" s="14"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="28" t="s">
+      <c r="B29" s="54"/>
+      <c r="C29" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="28" t="s">
+      <c r="D29" s="54"/>
+      <c r="E29" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="28" t="s">
+      <c r="F29" s="54"/>
+      <c r="G29" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="H29" s="29"/>
-      <c r="I29" s="28" t="s">
+      <c r="H29" s="54"/>
+      <c r="I29" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="J29" s="29"/>
-      <c r="K29" s="28" t="s">
+      <c r="J29" s="54"/>
+      <c r="K29" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="L29" s="29"/>
-      <c r="M29" s="28" t="s">
+      <c r="L29" s="54"/>
+      <c r="M29" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="N29" s="29"/>
+      <c r="N29" s="54"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -3840,26 +4126,26 @@
       <c r="J36" s="14"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="28" t="s">
+      <c r="B37" s="54"/>
+      <c r="C37" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="28" t="s">
+      <c r="D37" s="54"/>
+      <c r="E37" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="F37" s="29"/>
-      <c r="G37" s="28" t="s">
+      <c r="F37" s="54"/>
+      <c r="G37" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="H37" s="29"/>
-      <c r="I37" s="28" t="s">
+      <c r="H37" s="54"/>
+      <c r="I37" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="J37" s="29"/>
+      <c r="J37" s="54"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
@@ -4004,10 +4290,10 @@
       <c r="B44" s="14"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="29"/>
+      <c r="B45" s="54"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
@@ -4042,30 +4328,30 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="B50" s="31"/>
-      <c r="C50" s="30" t="s">
+      <c r="B50" s="56"/>
+      <c r="C50" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="30" t="s">
+      <c r="D50" s="56"/>
+      <c r="E50" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="F50" s="31"/>
-      <c r="G50" s="30" t="s">
+      <c r="F50" s="56"/>
+      <c r="G50" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="H50" s="31"/>
-      <c r="I50" s="30" t="s">
+      <c r="H50" s="56"/>
+      <c r="I50" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="J50" s="31"/>
-      <c r="K50" s="30" t="s">
+      <c r="J50" s="56"/>
+      <c r="K50" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="L50" s="31"/>
+      <c r="L50" s="56"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
@@ -4166,30 +4452,30 @@
       <c r="L57" s="4"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="32" t="s">
+      <c r="A58" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="33"/>
-      <c r="C58" s="32" t="s">
+      <c r="B58" s="58"/>
+      <c r="C58" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="D58" s="33"/>
-      <c r="E58" s="32" t="s">
+      <c r="D58" s="58"/>
+      <c r="E58" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="F58" s="33"/>
-      <c r="G58" s="32" t="s">
+      <c r="F58" s="58"/>
+      <c r="G58" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="H58" s="33"/>
-      <c r="I58" s="32" t="s">
+      <c r="H58" s="58"/>
+      <c r="I58" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="J58" s="33"/>
-      <c r="K58" s="32" t="s">
+      <c r="J58" s="58"/>
+      <c r="K58" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="L58" s="33"/>
+      <c r="L58" s="58"/>
     </row>
     <row r="59" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
@@ -4270,30 +4556,30 @@
       <c r="L61" s="14"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="29"/>
-      <c r="C62" s="28" t="s">
+      <c r="B62" s="54"/>
+      <c r="C62" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D62" s="29"/>
-      <c r="E62" s="28" t="s">
+      <c r="D62" s="54"/>
+      <c r="E62" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="F62" s="29"/>
-      <c r="G62" s="28" t="s">
+      <c r="F62" s="54"/>
+      <c r="G62" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="H62" s="29"/>
-      <c r="I62" s="28" t="s">
+      <c r="H62" s="54"/>
+      <c r="I62" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="J62" s="29"/>
-      <c r="K62" s="28" t="s">
+      <c r="J62" s="54"/>
+      <c r="K62" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="L62" s="29"/>
+      <c r="L62" s="54"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
@@ -4518,26 +4804,26 @@
         <v>51</v>
       </c>
       <c r="B70" s="9"/>
-      <c r="C70" s="28" t="s">
+      <c r="C70" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D70" s="29"/>
+      <c r="D70" s="54"/>
       <c r="E70" s="7" t="s">
         <v>51</v>
       </c>
       <c r="F70" s="9"/>
-      <c r="G70" s="28" t="s">
+      <c r="G70" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="H70" s="29"/>
+      <c r="H70" s="54"/>
       <c r="I70" s="7" t="s">
         <v>51</v>
       </c>
       <c r="J70" s="9"/>
-      <c r="K70" s="28" t="s">
+      <c r="K70" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="L70" s="29"/>
+      <c r="L70" s="54"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
@@ -4770,26 +5056,26 @@
       <c r="L77" s="14"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B78" s="29"/>
+      <c r="B78" s="54"/>
       <c r="C78" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D78" s="9"/>
-      <c r="E78" s="28" t="s">
+      <c r="E78" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="F78" s="29"/>
+      <c r="F78" s="54"/>
       <c r="G78" s="15" t="s">
         <v>51</v>
       </c>
       <c r="H78" s="9"/>
-      <c r="I78" s="28" t="s">
+      <c r="I78" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="J78" s="29"/>
+      <c r="J78" s="54"/>
       <c r="K78" s="15" t="s">
         <v>51</v>
       </c>
@@ -4990,14 +5276,14 @@
         <v>51</v>
       </c>
       <c r="D86" s="9"/>
-      <c r="E86" s="28" t="s">
+      <c r="E86" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="F86" s="29"/>
-      <c r="I86" s="28" t="s">
+      <c r="F86" s="54"/>
+      <c r="I86" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="J86" s="29"/>
+      <c r="J86" s="54"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C87" s="1" t="s">
@@ -5080,30 +5366,30 @@
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="30" t="s">
+      <c r="A91" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="B91" s="31"/>
-      <c r="C91" s="30" t="s">
+      <c r="B91" s="56"/>
+      <c r="C91" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="D91" s="31"/>
-      <c r="E91" s="30" t="s">
+      <c r="D91" s="56"/>
+      <c r="E91" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="F91" s="31"/>
-      <c r="G91" s="35" t="s">
+      <c r="F91" s="56"/>
+      <c r="G91" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="H91" s="35"/>
-      <c r="I91" s="30" t="s">
+      <c r="H91" s="62"/>
+      <c r="I91" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="J91" s="31"/>
-      <c r="K91" s="30" t="s">
+      <c r="J91" s="56"/>
+      <c r="K91" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="L91" s="31"/>
+      <c r="L91" s="56"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
@@ -5190,30 +5476,30 @@
       <c r="L98" s="4"/>
     </row>
     <row r="99" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="32" t="s">
+      <c r="A99" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="B99" s="33"/>
-      <c r="C99" s="32" t="s">
+      <c r="B99" s="58"/>
+      <c r="C99" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="D99" s="33"/>
-      <c r="E99" s="32" t="s">
+      <c r="D99" s="58"/>
+      <c r="E99" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="F99" s="33"/>
-      <c r="G99" s="32" t="s">
+      <c r="F99" s="58"/>
+      <c r="G99" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="H99" s="33"/>
-      <c r="I99" s="32" t="s">
+      <c r="H99" s="58"/>
+      <c r="I99" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="J99" s="33"/>
-      <c r="K99" s="36" t="s">
+      <c r="J99" s="58"/>
+      <c r="K99" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="L99" s="37"/>
+      <c r="L99" s="60"/>
     </row>
     <row r="100" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
@@ -5294,30 +5580,30 @@
       <c r="L102" s="14"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="28" t="s">
+      <c r="A103" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B103" s="29"/>
-      <c r="C103" s="28" t="s">
+      <c r="B103" s="54"/>
+      <c r="C103" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D103" s="29"/>
-      <c r="E103" s="28" t="s">
+      <c r="D103" s="54"/>
+      <c r="E103" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="F103" s="34"/>
-      <c r="G103" s="28" t="s">
+      <c r="F103" s="61"/>
+      <c r="G103" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="H103" s="34"/>
-      <c r="I103" s="28" t="s">
+      <c r="H103" s="61"/>
+      <c r="I103" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="J103" s="29"/>
-      <c r="K103" s="28" t="s">
+      <c r="J103" s="54"/>
+      <c r="K103" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="L103" s="29"/>
+      <c r="L103" s="54"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
@@ -5483,7 +5769,7 @@
       <c r="I108" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J108" s="38" t="s">
+      <c r="J108" s="28" t="s">
         <v>265</v>
       </c>
       <c r="K108" s="25"/>
@@ -5582,22 +5868,22 @@
         <v>51</v>
       </c>
       <c r="B113" s="9"/>
-      <c r="C113" s="28" t="s">
+      <c r="C113" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D113" s="29"/>
-      <c r="E113" s="28" t="s">
+      <c r="D113" s="54"/>
+      <c r="E113" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="F113" s="34"/>
-      <c r="G113" s="28" t="s">
+      <c r="F113" s="61"/>
+      <c r="G113" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="H113" s="34"/>
-      <c r="I113" s="28" t="s">
+      <c r="H113" s="61"/>
+      <c r="I113" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="J113" s="29"/>
+      <c r="J113" s="54"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
@@ -5734,10 +6020,10 @@
       <c r="D118" s="21"/>
       <c r="E118" s="25"/>
       <c r="F118" s="21"/>
-      <c r="G118" s="49" t="s">
+      <c r="G118" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H118" s="38" t="s">
+      <c r="H118" s="28" t="s">
         <v>204</v>
       </c>
       <c r="I118" s="25"/>
@@ -5826,26 +6112,26 @@
       <c r="J122" s="14"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="28" t="s">
+      <c r="A123" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="B123" s="29"/>
+      <c r="B123" s="54"/>
       <c r="C123" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D123" s="22"/>
-      <c r="E123" s="28" t="s">
+      <c r="E123" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="F123" s="29"/>
-      <c r="G123" s="34" t="s">
+      <c r="F123" s="54"/>
+      <c r="G123" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="H123" s="34"/>
-      <c r="I123" s="28" t="s">
+      <c r="H123" s="61"/>
+      <c r="I123" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="J123" s="29"/>
+      <c r="J123" s="54"/>
     </row>
     <row r="124" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
@@ -5987,7 +6273,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="6"/>
       <c r="C129" s="23"/>
@@ -6007,31 +6293,31 @@
         <v>214</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B130" s="11"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B131" s="8"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B132" s="14"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="28" t="s">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A133" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B133" s="29"/>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B133" s="54"/>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>4</v>
       </c>
@@ -6039,7 +6325,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>6</v>
       </c>
@@ -6047,7 +6333,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>8</v>
       </c>
@@ -6055,7 +6341,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>9</v>
       </c>
@@ -6063,672 +6349,939 @@
         <v>164</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="48" t="s">
+    <row r="138" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="72" t="s">
+        <v>357</v>
+      </c>
+      <c r="B138" s="72"/>
+      <c r="C138" s="72"/>
+      <c r="D138" s="72"/>
+      <c r="E138" s="72"/>
+      <c r="F138" s="72"/>
+      <c r="G138" s="72"/>
+      <c r="H138" s="72"/>
+      <c r="I138" s="72"/>
+      <c r="J138" s="72"/>
+      <c r="K138" s="72"/>
+      <c r="L138" s="72"/>
+    </row>
+    <row r="139" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="63" t="s">
         <v>269</v>
       </c>
-      <c r="B138" s="48"/>
-      <c r="C138" s="48"/>
-      <c r="D138" s="48"/>
-      <c r="E138" s="48"/>
-      <c r="F138" s="48"/>
-      <c r="G138" s="48"/>
-      <c r="H138" s="48"/>
-      <c r="I138" s="48"/>
-      <c r="J138" s="48"/>
-      <c r="K138" s="48"/>
-      <c r="L138" s="48"/>
-    </row>
-    <row r="139" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="43" t="s">
+      <c r="B139" s="64"/>
+      <c r="C139" s="64"/>
+      <c r="D139" s="65"/>
+      <c r="E139" s="63" t="s">
         <v>270</v>
       </c>
-      <c r="B139" s="44"/>
-      <c r="C139" s="44"/>
-      <c r="D139" s="45"/>
-      <c r="E139" s="43" t="s">
+      <c r="F139" s="64"/>
+      <c r="G139" s="64"/>
+      <c r="H139" s="65"/>
+      <c r="I139" s="63" t="s">
         <v>271</v>
       </c>
-      <c r="F139" s="44"/>
-      <c r="G139" s="44"/>
-      <c r="H139" s="45"/>
-      <c r="I139" s="43" t="s">
-        <v>272</v>
-      </c>
-      <c r="J139" s="44"/>
-      <c r="K139" s="44"/>
-      <c r="L139" s="45"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="40"/>
-      <c r="B140" s="41"/>
-      <c r="C140" s="41"/>
-      <c r="D140" s="42"/>
-      <c r="E140" s="40"/>
-      <c r="F140" s="41"/>
-      <c r="G140" s="41"/>
-      <c r="H140" s="42"/>
-      <c r="I140" s="40"/>
-      <c r="J140" s="41"/>
-      <c r="K140" s="41"/>
-      <c r="L140" s="42"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J139" s="64"/>
+      <c r="K139" s="64"/>
+      <c r="L139" s="65"/>
+      <c r="P139" s="70"/>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A140" s="30"/>
+      <c r="B140" s="31"/>
+      <c r="C140" s="31"/>
+      <c r="D140" s="31"/>
+      <c r="E140" s="30"/>
+      <c r="F140" s="31"/>
+      <c r="G140" s="31"/>
+      <c r="H140" s="32"/>
+      <c r="I140" s="31"/>
+      <c r="J140" s="31"/>
+      <c r="K140" s="31"/>
+      <c r="L140" s="32"/>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
-      <c r="B141" s="39"/>
-      <c r="C141" s="39"/>
-      <c r="D141" s="4"/>
+      <c r="B141" s="29"/>
+      <c r="C141" s="29"/>
+      <c r="D141" s="29"/>
       <c r="E141" s="3"/>
-      <c r="F141" s="39"/>
-      <c r="G141" s="39"/>
+      <c r="F141" s="29"/>
+      <c r="G141" s="29"/>
       <c r="H141" s="4"/>
-      <c r="I141" s="3"/>
-      <c r="J141" s="39"/>
-      <c r="K141" s="39"/>
+      <c r="I141" s="29"/>
+      <c r="J141" s="29"/>
+      <c r="K141" s="29"/>
       <c r="L141" s="4"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
-      <c r="B142" s="39"/>
-      <c r="C142" s="39"/>
-      <c r="D142" s="4"/>
+      <c r="B142" s="29"/>
+      <c r="C142" s="29"/>
+      <c r="D142" s="29"/>
       <c r="E142" s="3"/>
-      <c r="F142" s="39"/>
-      <c r="G142" s="39"/>
+      <c r="F142" s="29"/>
+      <c r="G142" s="29"/>
       <c r="H142" s="4"/>
-      <c r="I142" s="3"/>
-      <c r="J142" s="39"/>
-      <c r="K142" s="39"/>
+      <c r="I142" s="29"/>
+      <c r="J142" s="29"/>
+      <c r="K142" s="29"/>
       <c r="L142" s="4"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
-      <c r="B143" s="39"/>
-      <c r="C143" s="39"/>
-      <c r="D143" s="4"/>
+      <c r="B143" s="29"/>
+      <c r="C143" s="29"/>
+      <c r="D143" s="29"/>
       <c r="E143" s="3"/>
-      <c r="F143" s="39"/>
-      <c r="G143" s="39"/>
+      <c r="F143" s="29"/>
+      <c r="G143" s="29"/>
       <c r="H143" s="4"/>
-      <c r="I143" s="3"/>
-      <c r="J143" s="39"/>
-      <c r="K143" s="39"/>
+      <c r="I143" s="29"/>
+      <c r="J143" s="29"/>
+      <c r="K143" s="29"/>
       <c r="L143" s="4"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
-      <c r="B144" s="39"/>
-      <c r="C144" s="39"/>
-      <c r="D144" s="4"/>
+      <c r="B144" s="29"/>
+      <c r="C144" s="29"/>
+      <c r="D144" s="29"/>
       <c r="E144" s="3"/>
-      <c r="F144" s="39"/>
-      <c r="G144" s="39"/>
+      <c r="F144" s="29"/>
+      <c r="G144" s="29"/>
       <c r="H144" s="4"/>
-      <c r="I144" s="3"/>
-      <c r="J144" s="39"/>
-      <c r="K144" s="39"/>
+      <c r="I144" s="29"/>
+      <c r="J144" s="29"/>
+      <c r="K144" s="29"/>
       <c r="L144" s="4"/>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
-      <c r="B145" s="39"/>
-      <c r="C145" s="39"/>
-      <c r="D145" s="4"/>
+      <c r="B145" s="29"/>
+      <c r="C145" s="29"/>
+      <c r="D145" s="29"/>
       <c r="E145" s="3"/>
-      <c r="F145" s="39"/>
-      <c r="G145" s="39"/>
+      <c r="F145" s="29"/>
+      <c r="G145" s="29"/>
       <c r="H145" s="4"/>
-      <c r="I145" s="3"/>
-      <c r="J145" s="39"/>
-      <c r="K145" s="39"/>
+      <c r="I145" s="29"/>
+      <c r="J145" s="29"/>
+      <c r="K145" s="29"/>
       <c r="L145" s="4"/>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146" s="39"/>
-      <c r="C146" s="39"/>
-      <c r="D146" s="4"/>
+      <c r="A146" s="68"/>
+      <c r="B146" s="69"/>
+      <c r="C146" s="69"/>
+      <c r="D146" s="69"/>
       <c r="E146" s="3"/>
-      <c r="F146" s="39"/>
-      <c r="G146" s="39"/>
+      <c r="F146" s="29"/>
+      <c r="G146" s="29"/>
       <c r="H146" s="4"/>
-      <c r="I146" s="3"/>
-      <c r="J146" s="39"/>
-      <c r="K146" s="39"/>
+      <c r="I146" s="29"/>
+      <c r="J146" s="29"/>
+      <c r="K146" s="29"/>
       <c r="L146" s="4"/>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
-      <c r="B147" s="39"/>
-      <c r="C147" s="39"/>
-      <c r="D147" s="4"/>
+      <c r="B147" s="29"/>
+      <c r="C147" s="29"/>
+      <c r="D147" s="29"/>
       <c r="E147" s="3"/>
-      <c r="F147" s="39"/>
-      <c r="G147" s="39"/>
+      <c r="F147" s="29"/>
+      <c r="G147" s="29"/>
       <c r="H147" s="4"/>
-      <c r="I147" s="3"/>
-      <c r="J147" s="39"/>
-      <c r="K147" s="39"/>
+      <c r="I147" s="29"/>
+      <c r="J147" s="29"/>
+      <c r="K147" s="29"/>
       <c r="L147" s="4"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-      <c r="B148" s="39"/>
-      <c r="C148" s="39"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="39"/>
-      <c r="G148" s="39"/>
-      <c r="H148" s="4"/>
-      <c r="I148" s="3"/>
-      <c r="J148" s="39"/>
-      <c r="K148" s="39"/>
-      <c r="L148" s="4"/>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A149" s="50"/>
-      <c r="B149" s="46"/>
-      <c r="C149" s="46"/>
-      <c r="D149" s="47"/>
-      <c r="E149" s="39"/>
-      <c r="F149" s="39"/>
-      <c r="G149" s="39"/>
-      <c r="H149" s="4"/>
-      <c r="I149" s="3"/>
-      <c r="J149" s="39"/>
-      <c r="K149" s="39"/>
-      <c r="L149" s="4"/>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
-      <c r="B150" s="39"/>
-      <c r="C150" s="39"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="39"/>
-      <c r="G150" s="39"/>
-      <c r="H150" s="4"/>
-      <c r="I150" s="3"/>
-      <c r="J150" s="39"/>
-      <c r="K150" s="39"/>
-      <c r="L150" s="4"/>
+    <row r="148" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="5"/>
+      <c r="B148" s="29"/>
+      <c r="C148" s="29"/>
+      <c r="D148" s="29"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="23"/>
+      <c r="G148" s="23"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="29"/>
+      <c r="J148" s="29"/>
+      <c r="K148" s="29"/>
+      <c r="L148" s="6"/>
+      <c r="M148" s="29"/>
+    </row>
+    <row r="149" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="63" t="s">
+        <v>358</v>
+      </c>
+      <c r="B149" s="64"/>
+      <c r="C149" s="64"/>
+      <c r="D149" s="64"/>
+      <c r="E149" s="64"/>
+      <c r="F149" s="64"/>
+      <c r="G149" s="64"/>
+      <c r="H149" s="64"/>
+      <c r="I149" s="64"/>
+      <c r="J149" s="64"/>
+      <c r="K149" s="64"/>
+      <c r="L149" s="65"/>
+    </row>
+    <row r="150" spans="1:13" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="B150" s="66"/>
+      <c r="C150" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="D150" s="66"/>
+      <c r="E150" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="F150" s="66"/>
+      <c r="G150" s="66" t="s">
+        <v>275</v>
+      </c>
+      <c r="H150" s="66"/>
+      <c r="I150" s="66" t="s">
+        <v>276</v>
+      </c>
+      <c r="J150" s="66"/>
+      <c r="K150" s="67" t="s">
+        <v>277</v>
+      </c>
+      <c r="L150" s="67"/>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A151" s="3"/>
-      <c r="B151" s="39"/>
-      <c r="C151" s="39"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="39"/>
-      <c r="G151" s="39"/>
-      <c r="H151" s="4"/>
-      <c r="I151" s="3"/>
-      <c r="J151" s="39"/>
-      <c r="K151" s="39"/>
-      <c r="L151" s="4"/>
+      <c r="A151" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="B151" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C151" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="D151" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="E151" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="F151" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="G151" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="H151" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="I151" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="J151" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="K151" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="L151" s="32" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
-      <c r="B152" s="39"/>
-      <c r="C152" s="39"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="39"/>
-      <c r="G152" s="39"/>
-      <c r="H152" s="4"/>
-      <c r="I152" s="3"/>
-      <c r="J152" s="39"/>
-      <c r="K152" s="39"/>
-      <c r="L152" s="4"/>
-    </row>
-    <row r="153" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="5"/>
-      <c r="B153" s="23"/>
-      <c r="C153" s="23"/>
-      <c r="D153" s="23"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="23"/>
-      <c r="G153" s="23"/>
-      <c r="H153" s="6"/>
-      <c r="I153" s="23"/>
-      <c r="J153" s="23"/>
-      <c r="K153" s="23"/>
-      <c r="L153" s="23"/>
-      <c r="M153" s="3"/>
+      <c r="A152" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C152" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E152" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G152" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="I152" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="J152" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="K152" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="L152" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C153" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E153" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G153" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="I153" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="J153" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K153" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="L153" s="4" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="154" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="39"/>
-      <c r="B154" s="39"/>
-      <c r="C154" s="39"/>
-      <c r="D154" s="39"/>
-      <c r="E154" s="39"/>
-      <c r="F154" s="39"/>
-      <c r="G154" s="39"/>
-      <c r="H154" s="39"/>
-      <c r="I154" s="39"/>
-      <c r="J154" s="39"/>
-      <c r="K154" s="39"/>
-      <c r="L154" s="39"/>
-      <c r="M154" s="39"/>
+      <c r="A154" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C154" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E154" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G154" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H154" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="I154" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J154" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="K154" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="L154" s="6" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="155" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="43" t="s">
-        <v>279</v>
-      </c>
-      <c r="B155" s="44"/>
-      <c r="C155" s="44"/>
-      <c r="D155" s="44"/>
-      <c r="E155" s="44"/>
-      <c r="F155" s="44"/>
-      <c r="G155" s="44"/>
-      <c r="H155" s="44"/>
-      <c r="I155" s="44"/>
-      <c r="J155" s="44"/>
-      <c r="K155" s="44"/>
-      <c r="L155" s="45"/>
-    </row>
-    <row r="156" spans="1:13" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="51" t="s">
+      <c r="B155" s="23"/>
+      <c r="D155" s="23"/>
+      <c r="F155" s="23"/>
+      <c r="H155" s="23"/>
+      <c r="J155" s="23"/>
+      <c r="L155" s="6"/>
+    </row>
+    <row r="156" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="B156" s="64"/>
+      <c r="C156" s="64"/>
+      <c r="D156" s="64"/>
+      <c r="E156" s="64"/>
+      <c r="F156" s="64"/>
+      <c r="G156" s="64"/>
+      <c r="H156" s="64"/>
+      <c r="I156" s="64"/>
+      <c r="J156" s="64"/>
+      <c r="K156" s="64"/>
+      <c r="L156" s="65"/>
+    </row>
+    <row r="157" spans="1:13" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="B157" s="66"/>
+      <c r="C157" s="66" t="s">
         <v>273</v>
       </c>
-      <c r="B156" s="51"/>
-      <c r="C156" s="51" t="s">
+      <c r="D157" s="66"/>
+      <c r="E157" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="D156" s="51"/>
-      <c r="E156" s="51" t="s">
+      <c r="F157" s="66"/>
+      <c r="G157" s="66" t="s">
         <v>275</v>
       </c>
-      <c r="F156" s="51"/>
-      <c r="G156" s="51" t="s">
+      <c r="H157" s="66"/>
+      <c r="I157" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="H156" s="51"/>
-      <c r="I156" s="51" t="s">
+      <c r="J157" s="66"/>
+      <c r="K157" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="J156" s="51"/>
-      <c r="K156" s="52" t="s">
-        <v>278</v>
-      </c>
-      <c r="L156" s="52"/>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A157" s="40" t="s">
+      <c r="L157" s="67"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="B157" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="C157" s="41" t="s">
+      <c r="B158" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="C158" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="D157" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="E157" s="41" t="s">
+      <c r="D158" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="E158" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="F157" s="42" t="s">
-        <v>287</v>
-      </c>
-      <c r="G157" s="41" t="s">
+      <c r="F158" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="G158" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="H157" s="42" t="s">
-        <v>291</v>
-      </c>
-      <c r="I157" s="41" t="s">
+      <c r="H158" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="I158" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="J157" s="42" t="s">
-        <v>287</v>
-      </c>
-      <c r="K157" s="41" t="s">
+      <c r="J158" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="K158" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="L157" s="42" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C158" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E158" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="G158" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="H158" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="I158" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="J158" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="K158" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="L158" s="4" t="s">
-        <v>299</v>
+      <c r="L158" s="32" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C159" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E159" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G159" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="I159" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="J159" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="K159" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="L159" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B159" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C159" s="39" t="s">
+      <c r="B160" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C160" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D159" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E159" s="39" t="s">
+      <c r="D160" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E160" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F159" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="G159" s="39" t="s">
+      <c r="F160" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G160" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H159" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="I159" s="39" t="s">
+      <c r="H160" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I160" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="J159" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K159" s="39" t="s">
+      <c r="J160" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K160" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="L159" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="5" t="s">
+      <c r="L160" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B160" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C160" s="23" t="s">
+      <c r="B161" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C161" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D160" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="E160" s="23" t="s">
+      <c r="D161" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E161" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F160" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="G160" s="23" t="s">
+      <c r="F161" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="G161" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H160" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="I160" s="23" t="s">
+      <c r="H161" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="I161" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="J160" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="K160" s="23" t="s">
+      <c r="J161" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="K161" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="L160" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="23"/>
-      <c r="D161" s="23"/>
-      <c r="F161" s="23"/>
-      <c r="H161" s="23"/>
-      <c r="J161" s="23"/>
-      <c r="L161" s="6"/>
-    </row>
-    <row r="162" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="B162" s="44"/>
-      <c r="C162" s="44"/>
-      <c r="D162" s="44"/>
-      <c r="E162" s="44"/>
-      <c r="F162" s="44"/>
-      <c r="G162" s="44"/>
-      <c r="H162" s="44"/>
-      <c r="I162" s="44"/>
-      <c r="J162" s="44"/>
-      <c r="K162" s="44"/>
-      <c r="L162" s="45"/>
-    </row>
-    <row r="163" spans="1:12" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="51" t="s">
-        <v>273</v>
-      </c>
-      <c r="B163" s="51"/>
-      <c r="C163" s="51" t="s">
-        <v>274</v>
-      </c>
-      <c r="D163" s="51"/>
-      <c r="E163" s="51" t="s">
-        <v>275</v>
-      </c>
-      <c r="F163" s="51"/>
-      <c r="G163" s="51" t="s">
-        <v>276</v>
-      </c>
-      <c r="H163" s="51"/>
-      <c r="I163" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="J163" s="51"/>
-      <c r="K163" s="52" t="s">
-        <v>278</v>
-      </c>
-      <c r="L163" s="52"/>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164" s="40" t="s">
+      <c r="L161" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A164" s="71" t="s">
+        <v>320</v>
+      </c>
+      <c r="B164" s="71"/>
+      <c r="C164" s="71"/>
+      <c r="D164" s="71"/>
+      <c r="E164" s="71"/>
+      <c r="F164" s="71"/>
+      <c r="G164" s="71"/>
+      <c r="H164" s="71"/>
+      <c r="I164" s="71"/>
+      <c r="J164" s="71"/>
+      <c r="K164" s="71"/>
+      <c r="L164" s="71"/>
+      <c r="M164" s="71"/>
+      <c r="N164" s="71"/>
+    </row>
+    <row r="170" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="171" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="B171" s="49"/>
+      <c r="C171" s="49"/>
+      <c r="D171" s="49"/>
+      <c r="E171" s="49"/>
+      <c r="F171" s="49"/>
+      <c r="G171" s="50"/>
+      <c r="H171" s="48" t="s">
+        <v>323</v>
+      </c>
+      <c r="I171" s="49"/>
+      <c r="J171" s="49"/>
+      <c r="K171" s="49"/>
+      <c r="L171" s="49"/>
+      <c r="M171" s="49"/>
+      <c r="N171" s="50"/>
+    </row>
+    <row r="172" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="B172" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E172" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="F172" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G172" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="H172" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="I172" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="J172" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="K172" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="L172" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="M172" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="N172" s="36" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A173" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="B173" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="C173" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="D173" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="E173" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="F173" s="41" t="s">
+        <v>336</v>
+      </c>
+      <c r="G173" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="H173" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="I173" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="J173" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="K173" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="L173" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="M173" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="N173" s="41" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="B174" s="43" t="s">
+        <v>335</v>
+      </c>
+      <c r="C174" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="D174" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E174" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="F174" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="G174" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="H174" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="I174" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="J174" s="43" t="s">
+        <v>337</v>
+      </c>
+      <c r="K174" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="L174" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="M174" s="43" t="s">
+        <v>340</v>
+      </c>
+      <c r="N174" s="43" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A177" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="B177" s="51"/>
+      <c r="C177" s="51"/>
+      <c r="D177" s="51"/>
+      <c r="E177" s="51"/>
+      <c r="F177" s="51"/>
+      <c r="G177" s="51"/>
+      <c r="H177" s="51"/>
+      <c r="I177" s="51"/>
+      <c r="J177" s="51"/>
+      <c r="K177" s="51"/>
+      <c r="L177" s="51"/>
+      <c r="M177" s="51"/>
+      <c r="N177" s="51"/>
+    </row>
+    <row r="178" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="52" t="s">
+        <v>327</v>
+      </c>
+      <c r="B178" s="52"/>
+      <c r="C178" s="52"/>
+      <c r="D178" s="52"/>
+      <c r="E178" s="52"/>
+      <c r="F178" s="52"/>
+      <c r="G178" s="52"/>
+      <c r="H178" s="52"/>
+      <c r="I178" s="52"/>
+      <c r="J178" s="52"/>
+      <c r="K178" s="52"/>
+      <c r="L178" s="52"/>
+      <c r="M178" s="52"/>
+      <c r="N178" s="52"/>
+    </row>
+    <row r="179" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="34"/>
+      <c r="B179" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="C179" s="45"/>
+      <c r="D179" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="E179" s="45"/>
+      <c r="F179" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="G179" s="45"/>
+      <c r="H179" s="45" t="s">
+        <v>331</v>
+      </c>
+      <c r="I179" s="45"/>
+      <c r="J179" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="K179" s="45"/>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A180" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="B164" s="42" t="s">
-        <v>302</v>
-      </c>
-      <c r="C164" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="D164" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="E164" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="F164" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="G164" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="H164" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="I164" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="J164" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="K164" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="L164" s="42" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
+      <c r="B180" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="C180" s="46"/>
+      <c r="D180" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="E180" s="46"/>
+      <c r="F180" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="G180" s="46"/>
+      <c r="H180" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="I180" s="46"/>
+      <c r="J180" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="K180" s="46"/>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A181" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="B165" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C165" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="E165" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="F165" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G165" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="H165" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="I165" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="J165" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="K165" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="L165" s="4" t="s">
+      <c r="B181" s="47" t="s">
+        <v>343</v>
+      </c>
+      <c r="C181" s="47"/>
+      <c r="D181" s="47" t="s">
+        <v>347</v>
+      </c>
+      <c r="E181" s="47"/>
+      <c r="F181" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="G181" s="47"/>
+      <c r="H181" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="I181" s="47"/>
+      <c r="J181" s="47" t="s">
+        <v>355</v>
+      </c>
+      <c r="K181" s="47"/>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A182" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182" s="47" t="s">
+        <v>344</v>
+      </c>
+      <c r="C182" s="47"/>
+      <c r="D182" s="47" t="s">
+        <v>348</v>
+      </c>
+      <c r="E182" s="47"/>
+      <c r="F182" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="G182" s="47"/>
+      <c r="H182" s="47" t="s">
+        <v>353</v>
+      </c>
+      <c r="I182" s="47"/>
+      <c r="J182" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="K182" s="47"/>
+    </row>
+    <row r="183" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B183" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="C183" s="44"/>
+      <c r="D183" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="E183" s="44"/>
+      <c r="F183" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="G183" s="44"/>
+      <c r="H183" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="I183" s="44"/>
+      <c r="J183" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="K183" s="44"/>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C166" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="E166" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="F166" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="G166" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="H166" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="I166" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="J166" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="K166" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="L166" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C167" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D167" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="E167" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F167" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G167" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H167" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="I167" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="J167" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="K167" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="L167" s="6" t="s">
-        <v>321</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="111">
-    <mergeCell ref="A162:L162"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="I163:J163"/>
-    <mergeCell ref="K163:L163"/>
-    <mergeCell ref="K156:L156"/>
+  <mergeCells count="141">
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="A156:L156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="I157:J157"/>
+    <mergeCell ref="K157:L157"/>
+    <mergeCell ref="K150:L150"/>
     <mergeCell ref="A139:D139"/>
     <mergeCell ref="E139:H139"/>
     <mergeCell ref="I139:L139"/>
-    <mergeCell ref="A155:L155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="I156:J156"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="A149:L149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="E150:F150"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="I150:J150"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:D146"/>
     <mergeCell ref="A138:L138"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A45:B45"/>
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="M9:N9"/>
@@ -6749,9 +7302,14 @@
     <mergeCell ref="A123:B123"/>
     <mergeCell ref="A133:B133"/>
     <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="E123:F123"/>
     <mergeCell ref="A91:B91"/>
     <mergeCell ref="C91:D91"/>
@@ -6761,25 +7319,16 @@
     <mergeCell ref="C103:D103"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G37:H37"/>
@@ -6793,20 +7342,9 @@
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="M13:N13"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A164:N164"/>
     <mergeCell ref="I78:J78"/>
     <mergeCell ref="I86:J86"/>
     <mergeCell ref="G70:H70"/>
@@ -6820,9 +7358,48 @@
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C62:D62"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="A171:G171"/>
+    <mergeCell ref="H171:N171"/>
+    <mergeCell ref="A177:N177"/>
+    <mergeCell ref="A178:N178"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="H179:I179"/>
+    <mergeCell ref="H180:I180"/>
+    <mergeCell ref="H181:I181"/>
+    <mergeCell ref="H182:I182"/>
+    <mergeCell ref="H183:I183"/>
+    <mergeCell ref="J179:K179"/>
+    <mergeCell ref="J180:K180"/>
+    <mergeCell ref="J181:K181"/>
+    <mergeCell ref="J182:K182"/>
+    <mergeCell ref="J183:K183"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="D179:E179"/>
+    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="D181:E181"/>
+    <mergeCell ref="D182:E182"/>
+    <mergeCell ref="D183:E183"/>
+    <mergeCell ref="F179:G179"/>
+    <mergeCell ref="F180:G180"/>
+    <mergeCell ref="F181:G181"/>
+    <mergeCell ref="F182:G182"/>
+    <mergeCell ref="F183:G183"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="4" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="49" max="13" man="1"/>
     <brk id="90" max="13" man="1"/>
